--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A93B5A-91FD-4ED9-AC11-D6670B1B52F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50282E00-22C9-4379-8128-2FDE5C587B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="13">
   <si>
     <t>No</t>
   </si>
@@ -76,6 +76,17 @@
   </si>
   <si>
     <t>WIP</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>1.The extracting a parts number from GSPN has been completed for the SSC10, and converted to CSV , and uploaded at QMVAR LIVE successfully for  
+sevice order parts number capture monthly task.</t>
+  </si>
+  <si>
+    <t>2.  Running the Service Order Parts Number extraction task is in progress, so far 300 records  were extracted out of 859, whereas 
+above 500 records is yet to fetch and it is going on for the SSC11</t>
   </si>
 </sst>
 </file>
@@ -513,7 +524,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,22 +582,40 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2"/>
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44929</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50282E00-22C9-4379-8128-2FDE5C587B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9053E45-7DCF-4741-9855-AABDBB874D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="16">
   <si>
     <t>No</t>
   </si>
@@ -87,6 +87,16 @@
   <si>
     <t>2.  Running the Service Order Parts Number extraction task is in progress, so far 300 records  were extracted out of 859, whereas 
 above 500 records is yet to fetch and it is going on for the SSC11</t>
+  </si>
+  <si>
+    <t>1.The extracting a parts number from GSPN has been completed for the SSC11, and converted to CSV , and uploaded at QMVAR LIVE successfully for  
+sevice order parts number capture monthly task.</t>
+  </si>
+  <si>
+    <t>1. Created a  SERVICE ORDER PARTS NUMBER CAPTURING MONTHLY TASK with minimal functionality to download from GSPN site and  creating a  CSV file and uploading it to QMVAR has been completed,</t>
+  </si>
+  <si>
+    <t>2. Whereas the integration and testing of the post integration is work in progress</t>
   </si>
 </sst>
 </file>
@@ -524,7 +534,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,29 +628,49 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44930</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9053E45-7DCF-4741-9855-AABDBB874D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788D8853-256A-4012-9811-1AC8938EF54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="19">
   <si>
     <t>No</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>2. Whereas the integration and testing of the post integration is work in progress</t>
+  </si>
+  <si>
+    <t>1. The integration and testing of the post integration has been completed for SERVICE ORDER PARTS NUMBER CAPTURING MONTHLY TASK, and 
+it is running smoothly.</t>
+  </si>
+  <si>
+    <t>2. The integration and testing of the post integration has been completed for INVOICE_UPDATE_EXC_IW_MONTHLY TASK, and 
+it is running smoothly.</t>
+  </si>
+  <si>
+    <t>3. The integration and testing of the post integration has been completed for INVOICE_UPDATE_IW_MONTHLY TASK, and 
+it is running smoothly.</t>
   </si>
 </sst>
 </file>
@@ -534,7 +546,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,31 +687,55 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44931</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788D8853-256A-4012-9811-1AC8938EF54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBA1226-9EDE-46B8-9A1C-2291B42EE5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="21">
   <si>
     <t>No</t>
   </si>
@@ -108,6 +108,13 @@
   </si>
   <si>
     <t>3. The integration and testing of the post integration has been completed for INVOICE_UPDATE_IW_MONTHLY TASK, and 
+it is running smoothly.</t>
+  </si>
+  <si>
+    <t>1. Created a  RETURN CREDIT MONTHLY TASK with minimal functionality to download from GSPN site and  creating a  CSV file and uploading it to QMVAR has been completed,  whereas the integration is work in progress</t>
+  </si>
+  <si>
+    <t>2. The integration and testing of the post integration has been completed for INVOICE_UPDATE_OOW_MONTHLY TASK, and 
 it is running smoothly.</t>
   </si>
 </sst>
@@ -546,7 +553,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,22 +745,40 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="2"/>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44932</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBA1226-9EDE-46B8-9A1C-2291B42EE5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C040B0D-04FC-4F27-A8D0-6C3AE263097B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="25">
   <si>
     <t>No</t>
   </si>
@@ -116,6 +116,19 @@
   <si>
     <t>2. The integration and testing of the post integration has been completed for INVOICE_UPDATE_OOW_MONTHLY TASK, and 
 it is running smoothly.</t>
+  </si>
+  <si>
+    <t>1. The integration and testing of the post integration has been completed for RETURN CREDIT MONTHLY TASK, and 
+it is running smoothly.</t>
+  </si>
+  <si>
+    <t>2. whereas the PARTS_IO_Monthly task is work in progress from mamatha san side.</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>Once we receive the customized code for the Parts_IO Monthly task, then we can integrate that and test it and this is the last task from the monthly task.</t>
   </si>
 </sst>
 </file>
@@ -553,7 +566,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,20 +794,34 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="2"/>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44935</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -803,7 +830,9 @@
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -812,7 +841,9 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C040B0D-04FC-4F27-A8D0-6C3AE263097B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B83D18-2B28-4FA5-A14A-BF602E4AD8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="27">
   <si>
     <t>No</t>
   </si>
@@ -129,6 +129,13 @@
   </si>
   <si>
     <t>Once we receive the customized code for the Parts_IO Monthly task, then we can integrate that and test it and this is the last task from the monthly task.</t>
+  </si>
+  <si>
+    <t>1. The integration and testing of the post integration has been completed for Parts_IO Monthly TASK, and 
+it is running smoothly.</t>
+  </si>
+  <si>
+    <t>2. Development has been completed for the monthly tasks, whereas a long testing is work in progress</t>
   </si>
 </sst>
 </file>
@@ -565,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38510D85-C5BB-48D7-A5DE-03258A98F401}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -848,22 +855,40 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="2"/>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44936</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B83D18-2B28-4FA5-A14A-BF602E4AD8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288F58FD-0982-4E78-AA1A-DA74C90C5D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="28">
   <si>
     <t>No</t>
   </si>
@@ -136,6 +136,10 @@
   </si>
   <si>
     <t>2. Development has been completed for the monthly tasks, whereas a long testing is work in progress</t>
+  </si>
+  <si>
+    <t>1. A long testing is work in progress for the entire tasks, In addition to that Mohan san has suggested that to implement to run a specific task by 
+controlling it from configuration file as common one and it will be excluded for the Service Order Pending and Parts Number capturing tasks.</t>
   </si>
 </sst>
 </file>
@@ -572,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38510D85-C5BB-48D7-A5DE-03258A98F401}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,13 +895,25 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="2"/>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>8</v>
+      </c>
+      <c r="B19" s="6">
+        <v>44937</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288F58FD-0982-4E78-AA1A-DA74C90C5D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB42EC04-A327-4D27-92EC-93665A56BFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="29">
   <si>
     <t>No</t>
   </si>
@@ -140,6 +140,9 @@
   <si>
     <t>1. A long testing is work in progress for the entire tasks, In addition to that Mohan san has suggested that to implement to run a specific task by 
 controlling it from configuration file as common one and it will be excluded for the Service Order Pending and Parts Number capturing tasks.</t>
+  </si>
+  <si>
+    <t>1. A long testing is work in progress for the entire tasks, so far we have tested a six tasks from  26 tasks and remains are in progress.</t>
   </si>
 </sst>
 </file>
@@ -577,7 +580,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -917,12 +920,24 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="2"/>
+      <c r="A20" s="2">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44938</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB42EC04-A327-4D27-92EC-93665A56BFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D930351-E691-4007-A61B-57ADA93C19A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="30">
   <si>
     <t>No</t>
   </si>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>1. A long testing is work in progress for the entire tasks, so far we have tested a six tasks from  26 tasks and remains are in progress.</t>
+  </si>
+  <si>
+    <t>1. A New logic has been implemented in the integrated tasks to run only selected (failed) tasks if any tasks are failed  and  it is success, 
+whereas a long testing is work in progress for the remaining tasks</t>
   </si>
 </sst>
 </file>
@@ -569,7 +573,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -580,7 +584,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -940,13 +944,25 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="2"/>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>10</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44939</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D930351-E691-4007-A61B-57ADA93C19A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFA10E2-CFEB-4C54-A095-EB19AC67A62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="31">
   <si>
     <t>No</t>
   </si>
@@ -147,6 +147,9 @@
   <si>
     <t>1. A New logic has been implemented in the integrated tasks to run only selected (failed) tasks if any tasks are failed  and  it is success, 
 whereas a long testing is work in progress for the remaining tasks</t>
+  </si>
+  <si>
+    <t>1. The task integration testing is work in progress and around 15 tasks are tested and it is running smoothly and another 11 tasks are to be tested and it is work in progress.</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -965,13 +968,25 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="2"/>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44944</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFA10E2-CFEB-4C54-A095-EB19AC67A62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7980FF81-9439-4784-8AC3-74F5F968F6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="33">
   <si>
     <t>No</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>1. The task integration testing is work in progress and around 15 tasks are tested and it is running smoothly and another 11 tasks are to be tested and it is work in progress.</t>
+  </si>
+  <si>
+    <t>1. A few corrections received from the DRS DAILY TASK due to the record counts are not updated, it has been fixed, tested in all SSCs and it is running smoothly.</t>
+  </si>
+  <si>
+    <t>2. The task integration testing is work in progress and around 18 tasks are tested and it is running smoothly and another 8 tasks are to be tested and it is work in progress.</t>
   </si>
 </sst>
 </file>
@@ -587,7 +593,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -989,22 +995,40 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="2"/>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44945</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="2"/>
+      <c r="D24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7980FF81-9439-4784-8AC3-74F5F968F6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550CDA36-03DF-486A-8BEE-FEA82D9DC667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="34">
   <si>
     <t>No</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>2. The task integration testing is work in progress and around 18 tasks are tested and it is running smoothly and another 8 tasks are to be tested and it is work in progress.</t>
+  </si>
+  <si>
+    <t>1. The task integration testing is work in progress and around 22 tasks are tested and it is running smoothly and another 4 tasks are to be tested and it is work in progress</t>
   </si>
 </sst>
 </file>
@@ -592,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38510D85-C5BB-48D7-A5DE-03258A98F401}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,13 +1034,25 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="2"/>
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44949</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550CDA36-03DF-486A-8BEE-FEA82D9DC667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8A6C0C-1016-47A0-A4D2-4CAFE1A8530F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="36">
   <si>
     <t>No</t>
   </si>
@@ -159,6 +159,14 @@
   </si>
   <si>
     <t>1. The task integration testing is work in progress and around 22 tasks are tested and it is running smoothly and another 4 tasks are to be tested and it is work in progress</t>
+  </si>
+  <si>
+    <t>1. The testing has been completed for the task integration process for the all tasks and it is running smoothly from download to upload for the daily, 
+weekly, 10 days and monthly tasks.</t>
+  </si>
+  <si>
+    <t>2. A separate task has been created  for the Service Order Pending task with Parts number capturing task as it is a long running tasks and 
+it is tested and it is running smoothly</t>
   </si>
 </sst>
 </file>
@@ -596,7 +604,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,22 +1063,40 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="2"/>
+    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>14</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44950</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="2"/>
+      <c r="D27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8A6C0C-1016-47A0-A4D2-4CAFE1A8530F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8249E9E8-AEFF-4391-9E92-8F3F3BD6C24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="37">
   <si>
     <t>No</t>
   </si>
@@ -167,6 +167,9 @@
   <si>
     <t>2. A separate task has been created  for the Service Order Pending task with Parts number capturing task as it is a long running tasks and 
 it is tested and it is running smoothly</t>
+  </si>
+  <si>
+    <t>1. The auto upgradation code has been copied for around 13 tasks to download browser if task fails due to higher version of browser and copy it to respective folder (copied and tested) and another 13 tasks are work in progress,  mostly it will be completed by Friday evening.</t>
   </si>
 </sst>
 </file>
@@ -603,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38510D85-C5BB-48D7-A5DE-03258A98F401}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1099,13 +1102,25 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="2"/>
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>15</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44951</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8249E9E8-AEFF-4391-9E92-8F3F3BD6C24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8EF7E0-3CBB-43C7-8C3C-215D8F024A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="39">
   <si>
     <t>No</t>
   </si>
@@ -171,6 +171,13 @@
   <si>
     <t>1. The auto upgradation code has been copied for around 13 tasks to download browser if task fails due to higher version of browser and copy it to respective folder (copied and tested) and another 13 tasks are work in progress,  mostly it will be completed by Friday evening.</t>
   </si>
+  <si>
+    <t>1. The auto upgradation code has been copied for all the tasks to download browser if task fails due to higher version of browser and copy it to 
+respective folder (copied and tested)  and it is running smoothly.</t>
+  </si>
+  <si>
+    <t>2. The updated integrated tasks has been shared to Mohan san along with tasks list.</t>
+  </si>
 </sst>
 </file>
 
@@ -250,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -290,6 +297,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,7 +618,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1123,17 +1134,38 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="2"/>
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>16</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44953</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
+      <c r="D30" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8EF7E0-3CBB-43C7-8C3C-215D8F024A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F0C9D4-AFE7-44F3-B6D2-D97AFE01F4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="40">
   <si>
     <t>No</t>
   </si>
@@ -178,6 +178,10 @@
   <si>
     <t>2. The updated integrated tasks has been shared to Mohan san along with tasks list.</t>
   </si>
+  <si>
+    <t>1. Renaming the integrated files (tasks) has been done, and renamed the same at integrated tasks, tested with daily tasks and it is success, 
+whereas the monthly tasks are work in progress.</t>
+  </si>
 </sst>
 </file>
 
@@ -257,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -297,10 +301,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,7 +618,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1157,23 +1157,35 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="11" t="s">
         <v>38</v>
       </c>
       <c r="E30" s="9">
         <v>1</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>17</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44956</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F0C9D4-AFE7-44F3-B6D2-D97AFE01F4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE8114D-83E4-48D4-A9FB-1F95C80CB54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="45">
   <si>
     <t>No</t>
   </si>
@@ -181,6 +181,21 @@
   <si>
     <t>1. Renaming the integrated files (tasks) has been done, and renamed the same at integrated tasks, tested with daily tasks and it is success, 
 whereas the monthly tasks are work in progress.</t>
+  </si>
+  <si>
+    <t>3. Whereas, Except monthly tasks (Service Order Pending and Capturing Parts Number Monthly tasks are yet to be tested)</t>
+  </si>
+  <si>
+    <t>1. Renaming the integrated files ( All 26 tasks+ two Master tasks) has been done and the same had been implemented at integrated Master task(file).</t>
+  </si>
+  <si>
+    <t>2. Centralized logs has been implemented to find error location, line number with filename during task executions in all 28 files.</t>
+  </si>
+  <si>
+    <t>4. A 25 tasks are tested and only  three  tasks are work in progress and it is long running test case.</t>
+  </si>
+  <si>
+    <t>5. MFA (taskname) has been inserted at all 28 files to identify the task before MFA authentication approval.</t>
   </si>
 </sst>
 </file>
@@ -617,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38510D85-C5BB-48D7-A5DE-03258A98F401}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1189,19 +1204,33 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="A32" s="2">
+        <v>18</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44957</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1210,7 +1239,9 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1219,7 +1250,9 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E35" s="4"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1228,9 +1261,15 @@
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE8114D-83E4-48D4-A9FB-1F95C80CB54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791F4D00-24D6-4742-9DFF-42AD43F0F0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
   <sheets>
     <sheet name="JAN-23" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="47">
   <si>
     <t>No</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>5. MFA (taskname) has been inserted at all 28 files to identify the task before MFA authentication approval.</t>
+  </si>
+  <si>
+    <t>1. A few customization has been done at all 28 tasks of the integrated, tested for the daily, 10days, weekly and monthly tasks and all are running smoothly.</t>
+  </si>
+  <si>
+    <t>2. Whereas, Testing of the Parts Number Capturing task is work in progress and it will be completed by 20:00 today and following that, I will share all 28 files to Mohan san tonight.</t>
   </si>
 </sst>
 </file>
@@ -632,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38510D85-C5BB-48D7-A5DE-03258A98F401}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2380,8 +2386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B854C386-5B4F-43F4-98C5-02A0C3120944}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2418,20 +2424,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="2"/>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44958</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791F4D00-24D6-4742-9DFF-42AD43F0F0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D081F80-D9F7-4FC8-9118-8D624E4533F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="50">
   <si>
     <t>No</t>
   </si>
@@ -202,6 +202,16 @@
   </si>
   <si>
     <t>2. Whereas, Testing of the Parts Number Capturing task is work in progress and it will be completed by 20:00 today and following that, I will share all 28 files to Mohan san tonight.</t>
+  </si>
+  <si>
+    <t>1.  Running the Service Order Parts Number extraction task is in progress, so far 300 records  were extracted out of 800, whereas 
+above 500 records is yet to fetch and it is going on for the SSC10 and SSC11</t>
+  </si>
+  <si>
+    <t>2. The both are (SSC10 &amp; SSC11) having around 1500 records and they are fetching in parallelly.</t>
+  </si>
+  <si>
+    <t>3. These tasks are running contineously</t>
   </si>
 </sst>
 </file>
@@ -628,7 +638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -638,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38510D85-C5BB-48D7-A5DE-03258A98F401}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2387,7 +2397,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2456,20 +2466,34 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44959</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2478,7 +2502,9 @@
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D081F80-D9F7-4FC8-9118-8D624E4533F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2122F68-0855-40A8-A5FA-D7F9B2726931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="52">
   <si>
     <t>No</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>3. These tasks are running contineously</t>
+  </si>
+  <si>
+    <t>1.The extracting a parts number from GSPN has been completed for the SSC10 and SSC11, and converted to CSV , and uploaded at QMVAR LIVE successfully for  sevice order parts number capture monthly task.</t>
+  </si>
+  <si>
+    <t>2. A few customizations for the integrated tasks has been completed, tested and they are running smoothly from download to upload smoothly.( Daily, Weekly, 10Days and Monthly tasks), and the updated source code has been shared to Mohan san Now.</t>
   </si>
 </sst>
 </file>
@@ -648,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38510D85-C5BB-48D7-A5DE-03258A98F401}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2397,7 +2403,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2509,22 +2515,40 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44960</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2122F68-0855-40A8-A5FA-D7F9B2726931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D69B21-5C84-45EF-A875-0BA9933E5D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="53">
   <si>
     <t>No</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>2. A few customizations for the integrated tasks has been completed, tested and they are running smoothly from download to upload smoothly.( Daily, Weekly, 10Days and Monthly tasks), and the updated source code has been shared to Mohan san Now.</t>
+  </si>
+  <si>
+    <t>1. A few customization has been done to record a final status of  the each task at log file during the master task execution and also preparing a final status report in html format and sending it in email are work in progress( GSPN integrated tasks process)</t>
   </si>
 </sst>
 </file>
@@ -2403,7 +2406,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2551,13 +2554,25 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44963</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D69B21-5C84-45EF-A875-0BA9933E5D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9875C424-14F0-41A7-A948-11FE5CB0624C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="58">
   <si>
     <t>No</t>
   </si>
@@ -221,6 +221,21 @@
   </si>
   <si>
     <t>1. A few customization has been done to record a final status of  the each task at log file during the master task execution and also preparing a final status report in html format and sending it in email are work in progress( GSPN integrated tasks process)</t>
+  </si>
+  <si>
+    <t>2. Following that, we will be preparing these files into html report and sending these to the specific emails and it is work in progress</t>
+  </si>
+  <si>
+    <t>3. Now,  we have recorded the task status at Task_Success_List.csv and Task_failures.csv files and it is done for the Integrated GSPN1 tasks(26 tasks)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Status of the each task has been recorded at  Task_Success_List csv file once it is completed with success (SSCCODE,Taskname, Status and Date with time etc) and similarly, status of the failures task will be recorded at Task_Failures_List csv file if any task is getting failed during  integrated task execution. </t>
+  </si>
+  <si>
+    <t>4. Similarly, we need to do for the Integrated GSPN2 tasks (Service Order Pending and Capturing Parts number monthly tasks (2 tasks)</t>
+  </si>
+  <si>
+    <t>5.  Till now, sending email with attachments has been completed and success, whereas converting these into html reports is work in progress</t>
   </si>
 </sst>
 </file>
@@ -2575,20 +2590,34 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="2"/>
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44964</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2597,7 +2626,9 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2606,7 +2637,9 @@
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2615,7 +2648,9 @@
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9875C424-14F0-41A7-A948-11FE5CB0624C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C117E82C-1E37-45CD-9198-2811FFFD67E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="59">
   <si>
     <t>No</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>5.  Till now, sending email with attachments has been completed and success, whereas converting these into html reports is work in progress</t>
+  </si>
+  <si>
+    <t>1. Creating a unique processid, applying at all (28 tasks) the tasks as parameters  where methods are defined, commenting  processid at each task within code, and commenting database update codes at all 28 tasks are done and whereas,  a testing is work in progress based on Mohan san suggestion.</t>
   </si>
 </sst>
 </file>
@@ -2421,7 +2424,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2655,13 +2658,25 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="2"/>
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44965</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C117E82C-1E37-45CD-9198-2811FFFD67E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D57907-830E-4BB0-A884-601F7C7225A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="60">
   <si>
     <t>No</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>1. Creating a unique processid, applying at all (28 tasks) the tasks as parameters  where methods are defined, commenting  processid at each task within code, and commenting database update codes at all 28 tasks are done and whereas,  a testing is work in progress based on Mohan san suggestion.</t>
+  </si>
+  <si>
+    <t>1. A 26 tasks has been tested individually and it is working fine, whereas a 2 tasks (SERVICE Order Pending  task and Capturing parts number tasks) are  testing is in progress.</t>
   </si>
 </sst>
 </file>
@@ -2424,7 +2427,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2679,13 +2682,25 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="2"/>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44966</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D57907-830E-4BB0-A884-601F7C7225A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F53BD58-F9AD-4E37-9088-4DB7A9D08238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="63">
   <si>
     <t>No</t>
   </si>
@@ -242,6 +242,15 @@
   </si>
   <si>
     <t>1. A 26 tasks has been tested individually and it is working fine, whereas a 2 tasks (SERVICE Order Pending  task and Capturing parts number tasks) are  testing is in progress.</t>
+  </si>
+  <si>
+    <t>1. A 2 tasks has been tested individually for the Service Order Pending and The capturing parts numbers tasks and it is running smoothly.</t>
+  </si>
+  <si>
+    <t>2. Following that, we have tested a master tasks (Integrated_GSPN1 tasks and Integrated_GSPN2 tasks) and they are running smoothly.</t>
+  </si>
+  <si>
+    <t>3. Creating a report from these tasks,and sending this report in the email body is work in progress.</t>
   </si>
 </sst>
 </file>
@@ -2427,7 +2436,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2704,30 +2713,54 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="2">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44967</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="2"/>
+      <c r="D18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F53BD58-F9AD-4E37-9088-4DB7A9D08238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F345E6C-A1F1-4538-B780-706EB0DE866B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="67">
   <si>
     <t>No</t>
   </si>
@@ -251,6 +251,18 @@
   </si>
   <si>
     <t>3. Creating a report from these tasks,and sending this report in the email body is work in progress.</t>
+  </si>
+  <si>
+    <t>1. Creating a report from these tasks,and sending this report in the email body is work in progress.</t>
+  </si>
+  <si>
+    <t>2. Internet issue from 5:30 PM onwards</t>
+  </si>
+  <si>
+    <t>1. Creating a report from 28 tasks has been done for the task status and sending in the email as collective report has been done.</t>
+  </si>
+  <si>
+    <t>2. The updated source code has been shared to Mohan san.</t>
   </si>
 </sst>
 </file>
@@ -2435,8 +2447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B854C386-5B4F-43F4-98C5-02A0C3120944}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2764,37 +2776,65 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="2"/>
+      <c r="A20" s="2">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44970</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="2"/>
+      <c r="A22" s="2">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44972</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F345E6C-A1F1-4538-B780-706EB0DE866B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C30CF3-E4B6-4D54-A93E-54DC899E25BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="71">
   <si>
     <t>No</t>
   </si>
@@ -263,6 +263,18 @@
   </si>
   <si>
     <t>2. The updated source code has been shared to Mohan san.</t>
+  </si>
+  <si>
+    <t>2. New logic has been implemented to exist program if no tasks are selected to run, tested and it is running smoothly</t>
+  </si>
+  <si>
+    <t>4. For the SONY, the certificate to be installed by Mohan san and it is work in progress</t>
+  </si>
+  <si>
+    <t>3. Checking status of the no data found for all integrated tasks and it is work in progress</t>
+  </si>
+  <si>
+    <t>1. Renamed the all integrated tasks with uppercase and updated the same at where these are called or imported.</t>
   </si>
 </sst>
 </file>
@@ -2447,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B854C386-5B4F-43F4-98C5-02A0C3120944}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2840,19 +2852,33 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="2"/>
+      <c r="A24" s="2">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44973</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2861,7 +2887,9 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2870,7 +2898,9 @@
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C30CF3-E4B6-4D54-A93E-54DC899E25BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E8DE3E-179D-480F-8801-FAF4749C4A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="72">
   <si>
     <t>No</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>1. Renamed the all integrated tasks with uppercase and updated the same at where these are called or imported.</t>
+  </si>
+  <si>
+    <t>1. So far, checking no data found has been completed for all daily tasks, whereas checking no data found  is work in progress for 10days,weekly and monthly tasks</t>
   </si>
 </sst>
 </file>
@@ -2460,7 +2463,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2905,13 +2908,25 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="2"/>
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44974</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E8DE3E-179D-480F-8801-FAF4749C4A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F02A58D-65C2-46E7-90A3-7078B8E324B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="75">
   <si>
     <t>No</t>
   </si>
@@ -278,6 +278,15 @@
   </si>
   <si>
     <t>1. So far, checking no data found has been completed for all daily tasks, whereas checking no data found  is work in progress for 10days,weekly and monthly tasks</t>
+  </si>
+  <si>
+    <t>1. checking no data found has been completed for all daily, 10days, weekly tasks, whereas checking no data found  is work in progress for  monthly tasks.</t>
+  </si>
+  <si>
+    <t>1. Checking no data found has been completed for all daily, 10days, weekly and monthly tasks.</t>
+  </si>
+  <si>
+    <t>2. Checking with data found test is work in progress</t>
   </si>
 </sst>
 </file>
@@ -2462,8 +2471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B854C386-5B4F-43F4-98C5-02A0C3120944}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2929,27 +2938,60 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="2"/>
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>13</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44977</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30" s="6">
+        <v>44978</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="2"/>
+      <c r="D31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F02A58D-65C2-46E7-90A3-7078B8E324B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1286E3FC-6FE0-4A52-AE0D-99315FFA5A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="77">
   <si>
     <t>No</t>
   </si>
@@ -265,9 +265,6 @@
     <t>2. The updated source code has been shared to Mohan san.</t>
   </si>
   <si>
-    <t>2. New logic has been implemented to exist program if no tasks are selected to run, tested and it is running smoothly</t>
-  </si>
-  <si>
     <t>4. For the SONY, the certificate to be installed by Mohan san and it is work in progress</t>
   </si>
   <si>
@@ -287,6 +284,15 @@
   </si>
   <si>
     <t>2. Checking with data found test is work in progress</t>
+  </si>
+  <si>
+    <t>2. New logic has been implemented to exit program if no tasks are selected to run, tested and it is running smoothly</t>
+  </si>
+  <si>
+    <t>1. Checking with data found has been completed for the all integrated task and it is working fine for single SSC.</t>
+  </si>
+  <si>
+    <t>2. Checking with data found for the multiple SSCs are work in progress</t>
   </si>
 </sst>
 </file>
@@ -2471,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B854C386-5B4F-43F4-98C5-02A0C3120944}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2874,7 +2880,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -2889,7 +2895,7 @@
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
       <c r="D25" s="5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="2"/>
@@ -2900,7 +2906,7 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="2"/>
@@ -2911,7 +2917,7 @@
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
       <c r="D27" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="2"/>
@@ -2928,7 +2934,7 @@
         <v>7</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="4">
         <v>0.5</v>
@@ -2949,7 +2955,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="4">
         <v>0.7</v>
@@ -2970,7 +2976,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="9">
         <v>1</v>
@@ -2984,7 +2990,7 @@
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
       <c r="D31" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="4">
         <v>0.5</v>
@@ -2995,21 +3001,39 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="2"/>
+      <c r="A32" s="2">
+        <v>15</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44979</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="2"/>
+      <c r="D33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1286E3FC-6FE0-4A52-AE0D-99315FFA5A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1068F290-657A-40B9-84D7-6A4E564F519D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="80">
   <si>
     <t>No</t>
   </si>
@@ -293,6 +293,15 @@
   </si>
   <si>
     <t>2. Checking with data found for the multiple SSCs are work in progress</t>
+  </si>
+  <si>
+    <t>1. Checking with data found for the multiple SSCs are work in progress and now it is running for SSC11,SSC3 and SSC7</t>
+  </si>
+  <si>
+    <t>3. Whereas this new logic will be implemented at Main task already running (GRS-GRDetails task)</t>
+  </si>
+  <si>
+    <t>2. Data issue at GRS-Details during task running due to invoice mismatch, and hence upload was failed and it has been fixed with new logic implementation, and it is running smoothly,</t>
   </si>
 </sst>
 </file>
@@ -2478,7 +2487,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3037,28 +3046,48 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="A34" s="2">
+        <v>16</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44980</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="2"/>
+      <c r="D35" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1068F290-657A-40B9-84D7-6A4E564F519D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D60ABC-E6EA-4B4F-BB90-9E5E880448A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="84">
   <si>
     <t>No</t>
   </si>
@@ -302,6 +302,19 @@
   </si>
   <si>
     <t>2. Data issue at GRS-Details during task running due to invoice mismatch, and hence upload was failed and it has been fixed with new logic implementation, and it is running smoothly,</t>
+  </si>
+  <si>
+    <t>2. In Integrated_GSPN1_DAILY tasks, the 24 tasks are checked with No data found, data found, with single SSC and  with Multiple SSCs, and they are running smoothly.</t>
+  </si>
+  <si>
+    <t>The updated source code has been shared.</t>
+  </si>
+  <si>
+    <t>3. In Integrated_GSPN2_Monthly tasks, (only 2 tasks) due to data availability is less in QMVARTest and long running testing time, we will be checking for no data found and data found for Single SSC and Multiple SSCs from QMVARLive on Monday.</t>
+  </si>
+  <si>
+    <t>1 In GRS_Details Daily task, as we had discussion with Mohan san, we have implemented a new logic to click invoice number/delivery number till last invoice number, tested and it is running smoothly. This has been applied at Integrated task also.
+The updated source code has been shared.</t>
   </si>
 </sst>
 </file>
@@ -2486,8 +2499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B854C386-5B4F-43F4-98C5-02A0C3120944}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3092,40 +3105,66 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="2"/>
+    <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>17</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44981</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="2"/>
+      <c r="D38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="D40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D60ABC-E6EA-4B4F-BB90-9E5E880448A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED2513E-4D4A-47B0-AE36-2FED0B325D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="85">
   <si>
     <t>No</t>
   </si>
@@ -315,6 +315,9 @@
   <si>
     <t>1 In GRS_Details Daily task, as we had discussion with Mohan san, we have implemented a new logic to click invoice number/delivery number till last invoice number, tested and it is running smoothly. This has been applied at Integrated task also.
 The updated source code has been shared.</t>
+  </si>
+  <si>
+    <t>1.The testing has been completed for no data found and data found cases for the Integrated_GSPN2_Monthly tasks, tested in Single and Multiple SSCs and they are running smoothly. The updated source code has been shared to Mohan san.</t>
   </si>
 </sst>
 </file>
@@ -2500,7 +2503,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3167,13 +3170,25 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>18</v>
+      </c>
+      <c r="B41" s="3">
+        <v>44984</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED2513E-4D4A-47B0-AE36-2FED0B325D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6461683C-FBDC-4963-A969-EE1EBCE8C2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
   <sheets>
     <sheet name="JAN-23" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="91">
   <si>
     <t>No</t>
   </si>
@@ -318,6 +318,24 @@
   </si>
   <si>
     <t>1.The testing has been completed for no data found and data found cases for the Integrated_GSPN2_Monthly tasks, tested in Single and Multiple SSCs and they are running smoothly. The updated source code has been shared to Mohan san.</t>
+  </si>
+  <si>
+    <t>1. A new suggestion from Mohan san has been received for the Integrated_GSPN1_DAILY tasks  and Integrated_GSPN2_Monthly tasks to record task count and task success count, nodatacount,datafoundcount, taskfailurecount, uploadsuccesscount, uploadfailurecount status and etc at RPALIVELOG table in database and it is work in progress.</t>
+  </si>
+  <si>
+    <t>01-03-2023RPA GSS</t>
+  </si>
+  <si>
+    <t>2. nodata found values from srcrecordcount has been changed to -99 and srcstatustxt values has been set as 'NO DATA FOUND" at 26 tasks</t>
+  </si>
+  <si>
+    <t>3. datafoundtxt values is set as  'Downloaded' to have a uniformity at 26 tasks</t>
+  </si>
+  <si>
+    <t>1. We have done a few changes towards to record in database like taskcount,tasksuccesscount for the integrated tasks record task count and task success count, nodatacount,datafoundcount, taskfailurecount, uploadsuccesscount, uploadfailurecount status at RPALIVESTATUS table.</t>
+  </si>
+  <si>
+    <t>4. Upload Success status are made as one 'Upload Success' irrespective of the return message once upload success at 26 tasks</t>
   </si>
 </sst>
 </file>
@@ -2502,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B854C386-5B4F-43F4-98C5-02A0C3120944}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3191,13 +3209,25 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+    <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>19</v>
+      </c>
+      <c r="B42" s="3">
+        <v>44985</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -3218,8 +3248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2271D43-D61B-4D29-AEB5-DBEDB6B10BBD}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G52"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3256,20 +3286,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
+    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -3278,7 +3320,9 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -3287,7 +3331,9 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6461683C-FBDC-4963-A969-EE1EBCE8C2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61480F8C-9FDB-4792-87C2-A0D09E2BF278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="93">
   <si>
     <t>No</t>
   </si>
@@ -323,9 +323,6 @@
     <t>1. A new suggestion from Mohan san has been received for the Integrated_GSPN1_DAILY tasks  and Integrated_GSPN2_Monthly tasks to record task count and task success count, nodatacount,datafoundcount, taskfailurecount, uploadsuccesscount, uploadfailurecount status and etc at RPALIVELOG table in database and it is work in progress.</t>
   </si>
   <si>
-    <t>01-03-2023RPA GSS</t>
-  </si>
-  <si>
     <t>2. nodata found values from srcrecordcount has been changed to -99 and srcstatustxt values has been set as 'NO DATA FOUND" at 26 tasks</t>
   </si>
   <si>
@@ -336,6 +333,15 @@
   </si>
   <si>
     <t>4. Upload Success status are made as one 'Upload Success' irrespective of the return message once upload success at 26 tasks</t>
+  </si>
+  <si>
+    <t>2. After implementing this, we have tested it at Integrated_GSPN1_DAILY tasks, and it is updating at database as expected.</t>
+  </si>
+  <si>
+    <t>3. Testing it at Integrated_GSPN2_MONTHLY is work in progress</t>
+  </si>
+  <si>
+    <t>1. Created a userdefined function to fetch records from RPALIVELOG table and manipulate the data according to the requirements  and the same to be  updated at RPALIVESTATUS table (like taskcount and taskcount etc) for the Integrated_GSPN1_DAILY and Integrated_GSPN2_MONTHLY Tasks.</t>
   </si>
 </sst>
 </file>
@@ -3249,15 +3255,15 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="109.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="119" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
@@ -3290,12 +3296,14 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="3">
+        <v>44986</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="4">
         <v>0.7</v>
@@ -3310,7 +3318,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2"/>
@@ -3321,7 +3329,7 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -3332,35 +3340,55 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44987</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61480F8C-9FDB-4792-87C2-A0D09E2BF278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D114CF3-0D6D-4C56-9C32-06475825E721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="95">
   <si>
     <t>No</t>
   </si>
@@ -342,6 +342,13 @@
   </si>
   <si>
     <t>1. Created a userdefined function to fetch records from RPALIVELOG table and manipulate the data according to the requirements  and the same to be  updated at RPALIVESTATUS table (like taskcount and taskcount etc) for the Integrated_GSPN1_DAILY and Integrated_GSPN2_MONTHLY Tasks.</t>
+  </si>
+  <si>
+    <t>2. Also tested at MULTIPLE SSCs and it is running smoothly.</t>
+  </si>
+  <si>
+    <t>1. The testing has been completed for the Integrated_GSPN2_MONTHLY tasks, Also made unique words are used to record tasks status at  
+26 tasks and it is recording at database as expected.</t>
   </si>
 </sst>
 </file>
@@ -3254,8 +3261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2271D43-D61B-4D29-AEB5-DBEDB6B10BBD}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D9:D10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3393,20 +3400,34 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3430,7 +3451,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D114CF3-0D6D-4C56-9C32-06475825E721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A517DF1-5332-45B9-BA65-C2479B1EA2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="99">
   <si>
     <t>No</t>
   </si>
@@ -349,6 +349,18 @@
   <si>
     <t>1. The testing has been completed for the Integrated_GSPN2_MONTHLY tasks, Also made unique words are used to record tasks status at  
 26 tasks and it is recording at database as expected.</t>
+  </si>
+  <si>
+    <t>RPA SONY</t>
+  </si>
+  <si>
+    <t>1. A common login function has been created to do a single login purpose, tested and it is running smoothly towards to creating a minimal functionality.</t>
+  </si>
+  <si>
+    <t>3. Based on Mohan san, this has been corrected and implemented at existing task before going into the integration portions.</t>
+  </si>
+  <si>
+    <t>2. A correction (downloading a same file twice)  has been fixed as SONY is running at Edge/Chrome browser) at SONY_PARTS_ORDER_LIST_DAILY_V2 task, tested and it is running smoothly.</t>
   </si>
 </sst>
 </file>
@@ -3262,7 +3274,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3270,7 +3282,7 @@
     <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="119" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="155.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
@@ -3433,21 +3445,39 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44991</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -3456,7 +3486,9 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A517DF1-5332-45B9-BA65-C2479B1EA2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAC8CEC-B2C0-4650-B58B-D1297CDEA472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="101">
   <si>
     <t>No</t>
   </si>
@@ -361,6 +361,12 @@
   </si>
   <si>
     <t>2. A correction (downloading a same file twice)  has been fixed as SONY is running at Edge/Chrome browser) at SONY_PARTS_ORDER_LIST_DAILY_V2 task, tested and it is running smoothly.</t>
+  </si>
+  <si>
+    <t>1. As environment setup with new bot is going on to test exisiting tasks of RPA SONY at newbot,  and during testing , a few issues are occuring like unwanted characters or contents are created and hence the upload is getting failed, and hence, we are correcting the main tasks before the integration process.</t>
+  </si>
+  <si>
+    <t>2. Today, 11 tasks of the Scheduling Daily task testing is work in progress, during this a  five CSV files are failed at uploads, and likewise we have to test at  other tasks and it is work in progress</t>
   </si>
 </sst>
 </file>
@@ -3273,8 +3279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2271D43-D61B-4D29-AEB5-DBEDB6B10BBD}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3493,20 +3499,34 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44992</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAC8CEC-B2C0-4650-B58B-D1297CDEA472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB4FB75-DFE3-4D6F-BE28-43B7AE993103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="104">
   <si>
     <t>No</t>
   </si>
@@ -367,6 +367,15 @@
   </si>
   <si>
     <t>2. Today, 11 tasks of the Scheduling Daily task testing is work in progress, during this a  five CSV files are failed at uploads, and likewise we have to test at  other tasks and it is work in progress</t>
+  </si>
+  <si>
+    <t>1. The task of Scheduling Report Daily has been tested once fixed the uploading issue,  now it is downloading and smoothly for all 11 CSV files.</t>
+  </si>
+  <si>
+    <t>2. Created a user-defined function program to converting the 11 excel files to CSV files, tested and it is functioning fine.</t>
+  </si>
+  <si>
+    <t>3. The updated source code has been shared.</t>
   </si>
 </sst>
 </file>
@@ -3280,7 +3289,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3532,19 +3541,33 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="2"/>
+      <c r="A16" s="2">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44993</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -3553,7 +3576,9 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB4FB75-DFE3-4D6F-BE28-43B7AE993103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3E641B-71DF-4E02-AB44-EF6DD4373C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="106">
   <si>
     <t>No</t>
   </si>
@@ -376,6 +376,13 @@
   </si>
   <si>
     <t>3. The updated source code has been shared.</t>
+  </si>
+  <si>
+    <t>2. Also tested  the SONY_APNEWSIS_DAILY  and SONY_APNEWSISREPORT_DAILY Tasks at newbot system and it is running smoothly.</t>
+  </si>
+  <si>
+    <t>1. A few uploading issue at Schedule Report Monthly tasks has been fixed by creating a new userdefined function and it is tested and it is running smoothly for 
+SONY_SCHEDULE_REPORT_MONTHLY_TASKS (it is having four csv files to download and upload)</t>
   </si>
 </sst>
 </file>
@@ -3289,7 +3296,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3583,20 +3590,34 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="2"/>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44994</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3E641B-71DF-4E02-AB44-EF6DD4373C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08C620C-B5F9-415F-BDBC-1ACDD4CDB86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="115">
   <si>
     <t>No</t>
   </si>
@@ -383,6 +383,33 @@
   <si>
     <t>1. A few uploading issue at Schedule Report Monthly tasks has been fixed by creating a new userdefined function and it is tested and it is running smoothly for 
 SONY_SCHEDULE_REPORT_MONTHLY_TASKS (it is having four csv files to download and upload)</t>
+  </si>
+  <si>
+    <t>We have tested all the six tasks of SONY,  in that only four tasks were having upload issues and it has been fixed, tested and they are running smoothly from download to upload.</t>
+  </si>
+  <si>
+    <t>1. SONY_SCHEDULE_REPORT_DAILY_V1</t>
+  </si>
+  <si>
+    <t>2. SONY_SCHEDULE_REPORT_MONTHLY_V1</t>
+  </si>
+  <si>
+    <t>3. SONY_STOCKLIST_MONTHLY_V1</t>
+  </si>
+  <si>
+    <t>4. SONY_PARTS_ORDER_LIST_DAILY_V2</t>
+  </si>
+  <si>
+    <t>whereas, a two tasks are running without any issue for the below mentioned:</t>
+  </si>
+  <si>
+    <t>5. SONY_APNEWSIS_DAILY_V2</t>
+  </si>
+  <si>
+    <t>6. SONY_APNEWSISREPORT_DAILY_V2</t>
+  </si>
+  <si>
+    <t>With this, the environment setup also done.</t>
   </si>
 </sst>
 </file>
@@ -3295,8 +3322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2271D43-D61B-4D29-AEB5-DBEDB6B10BBD}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3623,19 +3650,33 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="2"/>
+      <c r="A21" s="2">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44995</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3644,7 +3685,9 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3653,7 +3696,9 @@
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3662,7 +3707,9 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -3671,7 +3718,9 @@
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -3680,7 +3729,9 @@
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -3689,7 +3740,9 @@
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3698,7 +3751,9 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08C620C-B5F9-415F-BDBC-1ACDD4CDB86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373BC4D0-ED41-4607-B1D1-F8A97B5B3D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="117">
   <si>
     <t>No</t>
   </si>
@@ -410,6 +410,12 @@
   </si>
   <si>
     <t>With this, the environment setup also done.</t>
+  </si>
+  <si>
+    <t>1. Created a  SONY_PARTS_ORDER_LIST_DAILY_V1 TASK with minimal functionality to download from SONY site and  creating a  CSV file and uploading it to QMVAR has been completed.</t>
+  </si>
+  <si>
+    <t>2. Creating a SONY_APNEWSIS_DAILY_TASK is work in progress (it contains three tasks like Outbound, Inbound and RPSI Inquiry tasks).</t>
   </si>
 </sst>
 </file>
@@ -490,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -530,6 +536,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,7 +854,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3322,8 +3329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2271D43-D61B-4D29-AEB5-DBEDB6B10BBD}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3759,21 +3766,39 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="A30" s="2">
+        <v>9</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44998</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="2"/>
+      <c r="D31" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373BC4D0-ED41-4607-B1D1-F8A97B5B3D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B408C2-4D82-45A8-BA0B-0DA248E39AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="123">
   <si>
     <t>No</t>
   </si>
@@ -416,6 +416,24 @@
   </si>
   <si>
     <t>2. Creating a SONY_APNEWSIS_DAILY_TASK is work in progress (it contains three tasks like Outbound, Inbound and RPSI Inquiry tasks).</t>
+  </si>
+  <si>
+    <t>2. Converting as CSV files from the extracted informations are done.</t>
+  </si>
+  <si>
+    <t>1. Created a SONY_APNEWSIS_DAILY_TASK with minimal functionality to download or extract informations from the SONY website for the Inbound task, Outbound task and RPSI Inquiry task.</t>
+  </si>
+  <si>
+    <t>3. All three CSV files are uploading success.</t>
+  </si>
+  <si>
+    <t>4. Now the updation in database at  RPALIVE Log and RPALIVE Status are work in progress for the SONY_APNEWSIS_DAILY_TASK.</t>
+  </si>
+  <si>
+    <t>1. The updation in database at RPALIVELOG and RPALIVESTATUS are taking place for the SONY_APNEWSIS_DAILY_TASK and a few more times it has been tested and verified and it is fine.</t>
+  </si>
+  <si>
+    <t>1. Created a SONY_STOCKLIST_MONTHLY_TASK  with minimal functionality to download  from the SONY website  and converting the xls file to CSV and uploading is done, whereas, a few more testing is work in progress.</t>
   </si>
 </sst>
 </file>
@@ -496,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -536,7 +554,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3329,8 +3346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2271D43-D61B-4D29-AEB5-DBEDB6B10BBD}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3790,7 +3807,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="10" t="s">
         <v>116</v>
       </c>
       <c r="E31" s="4">
@@ -3801,64 +3818,116 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="2"/>
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>10</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44999</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="2"/>
+      <c r="D33" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="2"/>
+      <c r="D34" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="10"/>
+      <c r="E36" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>11</v>
+      </c>
+      <c r="B37" s="3">
+        <v>45000</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="2"/>
+      <c r="D38" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B408C2-4D82-45A8-BA0B-0DA248E39AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55AE5FD-99F4-4ADA-A75B-DE641404794B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="126">
   <si>
     <t>No</t>
   </si>
@@ -430,10 +430,19 @@
     <t>4. Now the updation in database at  RPALIVE Log and RPALIVE Status are work in progress for the SONY_APNEWSIS_DAILY_TASK.</t>
   </si>
   <si>
-    <t>1. The updation in database at RPALIVELOG and RPALIVESTATUS are taking place for the SONY_APNEWSIS_DAILY_TASK and a few more times it has been tested and verified and it is fine.</t>
-  </si>
-  <si>
-    <t>1. Created a SONY_STOCKLIST_MONTHLY_TASK  with minimal functionality to download  from the SONY website  and converting the xls file to CSV and uploading is done, whereas, a few more testing is work in progress.</t>
+    <t>2. Created a SONY_STOCKLIST_MONTHLY_TASK  with minimal functionality to download  from the SONY website  and converting the xls file to CSV and uploading is done, whereas, a few more testing is work in progress.</t>
+  </si>
+  <si>
+    <t>1. The updating in database at RPALIVELOG and RPALIVESTATUS are taking place for the SONY_APNEWSIS_DAILY_TASK and a few more times it has been tested and verified and it is fine.</t>
+  </si>
+  <si>
+    <t>1. A few more testing is also done, test completed for SONY_STOCKLIST_MONTHLY TASK and it  is running smoothly.</t>
+  </si>
+  <si>
+    <t>2. Created a SONY_SCHEDULE_REPORT_MONTHLY_TASK  with minimal functionality to download  from the SONY website  and converting the xls file to CSV and uploading is done, whereas, a few more testing is work in progress (it is having four csv files).</t>
+  </si>
+  <si>
+    <t>3. In SONY_SCHEDULE_REPORT_DAILY_V1 TASKS,  as it has issue during CSV conversions at 'IN_daily_RepairsetSet_NP and it is failed during csv conversion by pandas and  Now it has been fixed by placing right encoding approach  and it is running and uploading smoothly.(it is having 11 CSV files)</t>
   </si>
 </sst>
 </file>
@@ -3346,8 +3355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2271D43-D61B-4D29-AEB5-DBEDB6B10BBD}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3906,7 +3915,7 @@
         <v>95</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
@@ -3920,7 +3929,7 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E38" s="4">
         <v>0.6</v>
@@ -3938,28 +3947,52 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>16</v>
+      </c>
+      <c r="B40" s="3">
+        <v>45001</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D41" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="D42" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55AE5FD-99F4-4ADA-A75B-DE641404794B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BA2B75-9BF0-4C81-B9AA-DE24FD91E37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="127">
   <si>
     <t>No</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>3. In SONY_SCHEDULE_REPORT_DAILY_V1 TASKS,  as it has issue during CSV conversions at 'IN_daily_RepairsetSet_NP and it is failed during csv conversion by pandas and  Now it has been fixed by placing right encoding approach  and it is running and uploading smoothly.(it is having 11 CSV files)</t>
+  </si>
+  <si>
+    <t>1. Created a SONY_SCHEDULE_REPORT_DAILY_TASK (it is having a source files 31 and uploading file a 11 csv files)  with minimal functionality to download  from the SONY website  and converting the xls file to CSV and uploading is done, whereas, a few more testing is work in progress. The task is ready to download for previous datefolder data, whereas to dowload from Friday to Monday  datefolder data is work in progress.</t>
   </si>
 </sst>
 </file>
@@ -3355,8 +3358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2271D43-D61B-4D29-AEB5-DBEDB6B10BBD}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3948,7 +3951,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B40" s="3">
         <v>45001</v>
@@ -4002,13 +4005,25 @@
       <c r="E43" s="4"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="2"/>
+    <row r="44" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>13</v>
+      </c>
+      <c r="B44" s="3">
+        <v>45002</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BA2B75-9BF0-4C81-B9AA-DE24FD91E37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F77A0ED-6C0C-448D-9B45-BC221981F98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="128">
   <si>
     <t>No</t>
   </si>
@@ -445,7 +445,10 @@
     <t>3. In SONY_SCHEDULE_REPORT_DAILY_V1 TASKS,  as it has issue during CSV conversions at 'IN_daily_RepairsetSet_NP and it is failed during csv conversion by pandas and  Now it has been fixed by placing right encoding approach  and it is running and uploading smoothly.(it is having 11 CSV files)</t>
   </si>
   <si>
-    <t>1. Created a SONY_SCHEDULE_REPORT_DAILY_TASK (it is having a source files 31 and uploading file a 11 csv files)  with minimal functionality to download  from the SONY website  and converting the xls file to CSV and uploading is done, whereas, a few more testing is work in progress. The task is ready to download for previous datefolder data, whereas to dowload from Friday to Monday  datefolder data is work in progress.</t>
+    <t>1. Created a SONY_SCHEDULE_REPORT_DAILY_TASK (it is having a source files 31 and uploading file a 11 csv files)  with minimal functionality to download  from the SONY website  and converting the xls file to CSV and uploading is done, whereas, a few more testing is work in progress. The task is ready to download for previous datefolder data, whereas to download from Friday to Monday  datefolder data is work in progress.</t>
+  </si>
+  <si>
+    <t>1. With aim of of single login,   Dowloading from Friday to Sunday date folders files from the SONY site are completed if a downloading day is Monday, whereas selecting datewise files to convert CSV is work in progress for the SONY_SCHEDULE_REPORT_DAILY_TASK and it is having a 31 Excel files towards 11 output CSV files (totally 93 excels files, 33 CSV files on Mondays to process)</t>
   </si>
 </sst>
 </file>
@@ -3359,7 +3362,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4025,13 +4028,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="2"/>
+    <row r="45" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>14</v>
+      </c>
+      <c r="B45" s="3">
+        <v>45005</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F77A0ED-6C0C-448D-9B45-BC221981F98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B9C0CB-F728-49FB-891E-9C031709F173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="129">
   <si>
     <t>No</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>1. With aim of of single login,   Dowloading from Friday to Sunday date folders files from the SONY site are completed if a downloading day is Monday, whereas selecting datewise files to convert CSV is work in progress for the SONY_SCHEDULE_REPORT_DAILY_TASK and it is having a 31 Excel files towards 11 output CSV files (totally 93 excels files, 33 CSV files on Mondays to process)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  downloaded threedays folder files from the SONY_SCHEDULE_REPORT_DAILY_TASK   if the task is running on Mondays and  still selecting and converting excel files to CSV files((totally 93 excels files, 33 CSV files on Mondays to process and upload them) are work in progress. </t>
   </si>
 </sst>
 </file>
@@ -3361,8 +3364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2271D43-D61B-4D29-AEB5-DBEDB6B10BBD}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4048,13 +4051,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="2"/>
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>15</v>
+      </c>
+      <c r="B46" s="3">
+        <v>45006</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B9C0CB-F728-49FB-891E-9C031709F173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFBD646-DB3B-4EB8-AE3C-3046D3901090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="130">
   <si>
     <t>No</t>
   </si>
@@ -452,6 +452,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.  downloaded threedays folder files from the SONY_SCHEDULE_REPORT_DAILY_TASK   if the task is running on Mondays and  still selecting and converting excel files to CSV files((totally 93 excels files, 33 CSV files on Mondays to process and upload them) are work in progress. </t>
+  </si>
+  <si>
+    <t>1. Merging downloaded files from sony site for the SONY_SCHEDULE_REPORT_DAILY_TASK , and converting these files into CSV files towards uploading is completed, whereas to do the same for the multiple datefolder is work in progress.</t>
   </si>
 </sst>
 </file>
@@ -3364,8 +3367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2271D43-D61B-4D29-AEB5-DBEDB6B10BBD}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:F46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4071,13 +4074,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="2"/>
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>16</v>
+      </c>
+      <c r="B47" s="3">
+        <v>45008</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFBD646-DB3B-4EB8-AE3C-3046D3901090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06EF677-7B38-47A1-963E-FEE3299BEACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="131">
   <si>
     <t>No</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>1. Merging downloaded files from sony site for the SONY_SCHEDULE_REPORT_DAILY_TASK , and converting these files into CSV files towards uploading is completed, whereas to do the same for the multiple datefolder is work in progress.</t>
+  </si>
+  <si>
+    <t>1.  Testing of CSV converted and uploaing CSV files for the multiple datefolder files from the sony site are  work in progress.</t>
   </si>
 </sst>
 </file>
@@ -3368,7 +3371,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4095,11 +4098,21 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="4"/>
+      <c r="A48" s="2">
+        <v>17</v>
+      </c>
+      <c r="B48" s="3">
+        <v>45009</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0.95</v>
+      </c>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06EF677-7B38-47A1-963E-FEE3299BEACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C590CC-1E4D-4675-B901-03104210D2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="136">
   <si>
     <t>No</t>
   </si>
@@ -457,7 +457,22 @@
     <t>1. Merging downloaded files from sony site for the SONY_SCHEDULE_REPORT_DAILY_TASK , and converting these files into CSV files towards uploading is completed, whereas to do the same for the multiple datefolder is work in progress.</t>
   </si>
   <si>
-    <t>1.  Testing of CSV converted and uploaing CSV files for the multiple datefolder files from the sony site are  work in progress.</t>
+    <t>1.  Testing of CSV conversion of the downloaded files and uploading CSV files for the multiple datefolder files from the sony site are  work in progress.</t>
+  </si>
+  <si>
+    <t>1.  Testing of CSV conversion of the downloaded files and uploading CSV files for the multiple datefolder files from the sony site are completed, and it is functioning fine for the SONY_SCHEDULE_REPORT_DAILY_TASK</t>
+  </si>
+  <si>
+    <t>2. Whereas,  we need to check that how to record a no data found cases when no datefolders are found at sony site and it is work in progress for the SONY_SCHEDULE_REPORT_DAILY_TASK</t>
+  </si>
+  <si>
+    <t>1. The testing with no data found has been completed  for the SONY_SCHEDULE_REPORT_DAILY_TASK when a no datefolder exists at  SONY site and it is running smoothly.</t>
+  </si>
+  <si>
+    <t>2. Also tested for no data found when a  certain files are not presented in the datefolder</t>
+  </si>
+  <si>
+    <t>3. With this, the customization has been  completed for all the  SONY tasks, and the integration process is work in progress</t>
   </si>
 </sst>
 </file>
@@ -3370,8 +3385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2271D43-D61B-4D29-AEB5-DBEDB6B10BBD}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4115,51 +4130,86 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>18</v>
+      </c>
+      <c r="B49" s="3">
+        <v>45012</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="2"/>
+      <c r="D50" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="A51" s="2">
+        <v>19</v>
+      </c>
+      <c r="B51" s="3">
+        <v>45013</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C590CC-1E4D-4675-B901-03104210D2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAE4EA6-95BE-44A6-8729-891666C66310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="142">
   <si>
     <t>No</t>
   </si>
@@ -473,6 +473,24 @@
   </si>
   <si>
     <t>3. With this, the customization has been  completed for all the  SONY tasks, and the integration process is work in progress</t>
+  </si>
+  <si>
+    <t>1. Created a master file to integrate  all the sony tasks, whereas we have integrated the SONY_SCHEDULE_REPORT DAILY TASKS (which is having 31 excel files and 11 CSV files) on it and the testing is work in progress and another four tasks are yet to be started to integrate.</t>
+  </si>
+  <si>
+    <t>1. Integration has been completed for the below mentioned tasks and the same had been tested and they are running smoothly from download to upload.</t>
+  </si>
+  <si>
+    <t>a). Integrated_SONY_SCHEDULE_REPORT_DAILY (31 files and 11 CSV files)</t>
+  </si>
+  <si>
+    <t>b). Integrated_SONY_APNEWSIS_DAILY (3 CSV files)</t>
+  </si>
+  <si>
+    <t>c). Integrated_SONY_PARTS_ORDER_LIST_DAILY (1CSV)</t>
+  </si>
+  <si>
+    <t>Note: The integration has been completed for the Daily tasks, whereas the integration is work in for the monthly tasks</t>
   </si>
 </sst>
 </file>
@@ -3385,8 +3403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2271D43-D61B-4D29-AEB5-DBEDB6B10BBD}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53:F53"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4213,27 +4231,53 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>20</v>
+      </c>
+      <c r="B55" s="3">
+        <v>45014</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="A56" s="2">
+        <v>21</v>
+      </c>
+      <c r="B56" s="3">
+        <v>45015</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
@@ -4241,7 +4285,9 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
@@ -4249,7 +4295,9 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="D59" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
@@ -4257,7 +4305,9 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="D60" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAE4EA6-95BE-44A6-8729-891666C66310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD48600D-E4BE-4EA5-B6AF-8A34E9B7DD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="146">
   <si>
     <t>No</t>
   </si>
@@ -490,7 +490,19 @@
     <t>c). Integrated_SONY_PARTS_ORDER_LIST_DAILY (1CSV)</t>
   </si>
   <si>
-    <t>Note: The integration has been completed for the Daily tasks, whereas the integration is work in for the monthly tasks</t>
+    <t>Note: The integration has been completed for the Daily tasks, whereas the integration is work in progress for the monthly tasks</t>
+  </si>
+  <si>
+    <t>1. The integration of monthly tasks has been completed for the below mentioned tasks:</t>
+  </si>
+  <si>
+    <t>a). Integrated_SONY_SCHEDULE_REPORT_MONTHLY_V1 (4 files, 4 CSV)</t>
+  </si>
+  <si>
+    <t>Note: The integration has been completed for the Daily and Monthly of the SONY tasks, whereas the testing is work in progress</t>
+  </si>
+  <si>
+    <t>b). Integrated_SONY_STOCKLIST_MONTHLY_V1 (1 File, 1CSV)</t>
   </si>
 </sst>
 </file>
@@ -3404,7 +3416,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4312,18 +4324,32 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="A61" s="2">
+        <v>22</v>
+      </c>
+      <c r="B61" s="3">
+        <v>45016</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="D62" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
@@ -4331,7 +4357,9 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="D63" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
@@ -4339,7 +4367,9 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD48600D-E4BE-4EA5-B6AF-8A34E9B7DD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3634DCB-3EA3-47C1-A54B-F16A6ECFD58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
   <sheets>
     <sheet name="JAN-23" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="148">
   <si>
     <t>No</t>
   </si>
@@ -503,6 +503,12 @@
   </si>
   <si>
     <t>b). Integrated_SONY_STOCKLIST_MONTHLY_V1 (1 File, 1CSV)</t>
+  </si>
+  <si>
+    <t>1. The testing of the integrated tasks are work in progress of the SONY Tasks</t>
+  </si>
+  <si>
+    <t>2. A correction received from the ACTIVITY_DAILY task from Mohan san due to None return from Get_last_run_date function and it has been fixed, tested and it is running smoothly.</t>
   </si>
 </sst>
 </file>
@@ -3415,8 +3421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2271D43-D61B-4D29-AEB5-DBEDB6B10BBD}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView topLeftCell="B48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4518,8 +4524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147EB637-1488-436F-8BE1-C76F2358208E}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4557,21 +4563,41 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45019</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3634DCB-3EA3-47C1-A54B-F16A6ECFD58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC59810-F388-47EA-851A-8E43964B5899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="154">
   <si>
     <t>No</t>
   </si>
@@ -509,6 +509,24 @@
   </si>
   <si>
     <t>2. A correction received from the ACTIVITY_DAILY task from Mohan san due to None return from Get_last_run_date function and it has been fixed, tested and it is running smoothly.</t>
+  </si>
+  <si>
+    <t>1. The testing of the post  integration has been completed, and it is running smoothly from download to upload smoothly of  the SONY Tasks</t>
+  </si>
+  <si>
+    <t>2. The below mentioned tasks of Daily and Monthly are integrated:</t>
+  </si>
+  <si>
+    <t>6. The Master file is INTEGRATED_SONY_TASKS_V1</t>
+  </si>
+  <si>
+    <t>1. Supported to Mohan san to implement and testing the Sony integrated tasks</t>
+  </si>
+  <si>
+    <t>2. Downloaded and installation are completed for the wordpress framework</t>
+  </si>
+  <si>
+    <t>3. Research and Development for the word press framework  is going on.</t>
   </si>
 </sst>
 </file>
@@ -3421,8 +3439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2271D43-D61B-4D29-AEB5-DBEDB6B10BBD}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="B48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView topLeftCell="B50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4525,7 +4543,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4601,19 +4619,33 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45020</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -4622,7 +4654,9 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -4631,7 +4665,9 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -4640,13 +4676,17 @@
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D9" s="8"/>
+      <c r="D9" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
     </row>
@@ -4654,7 +4694,9 @@
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4663,7 +4705,9 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -4678,37 +4722,60 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45021</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="5"/>
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC59810-F388-47EA-851A-8E43964B5899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB3A909-DD02-46AE-82AA-ABC66E78E80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="156">
   <si>
     <t>No</t>
   </si>
@@ -527,6 +527,12 @@
   </si>
   <si>
     <t>3. Research and Development for the word press framework  is going on.</t>
+  </si>
+  <si>
+    <t>1. Research and Development for the word press framework  is going on.</t>
+  </si>
+  <si>
+    <t>2. Learned about that How to download and install the Plugins and include to the site to create a new page and etc.</t>
   </si>
 </sst>
 </file>
@@ -3338,7 +3344,7 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
@@ -4543,7 +4549,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4773,9 +4779,18 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45022</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4784,7 +4799,9 @@
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB3A909-DD02-46AE-82AA-ABC66E78E80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B15A5EF-1F93-406F-9F2E-A55A78F31927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="158">
   <si>
     <t>No</t>
   </si>
@@ -533,6 +533,12 @@
   </si>
   <si>
     <t>2. Learned about that How to download and install the Plugins and include to the site to create a new page and etc.</t>
+  </si>
+  <si>
+    <t>1. A correction received from Activity Daily task due to logging error (unicode character error from the status text) and it has been fixed by encoding in log file  with new approach and it is tested at few SSCs and it is running smoothly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Research and Development is in progress about wordpress for the  plugins (https://wordpress.org/plugins/woocommerce/) </t>
   </si>
 </sst>
 </file>
@@ -4549,7 +4555,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4806,22 +4812,38 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="2"/>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45026</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B15A5EF-1F93-406F-9F2E-A55A78F31927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03F9B9E-6936-44A3-9097-97D34F2EA3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="161">
   <si>
     <t>No</t>
   </si>
@@ -539,6 +539,16 @@
   </si>
   <si>
     <t xml:space="preserve">2. Research and Development is in progress about wordpress for the  plugins (https://wordpress.org/plugins/woocommerce/) </t>
+  </si>
+  <si>
+    <t>1.  A few modifications   request has been received from Mohan san for the PARTS_OVERDUE_MONTHLY_PARTS task and it is work in progress.</t>
+  </si>
+  <si>
+    <t>2.  Downloading/Exporting the stockoverview files from QMVAR LIVE  for four month has been completed and the same had been moved to temp folder 
+for the PARTS_OVERDUE_MONTHLY_PARTS task</t>
+  </si>
+  <si>
+    <t>3.  Generating start date and end date for the three months dynamically done etc</t>
   </si>
 </sst>
 </file>
@@ -4555,7 +4565,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D21" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4847,28 +4857,42 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
+      <c r="A20" s="2">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45027</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03F9B9E-6936-44A3-9097-97D34F2EA3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF8A687-478E-4E16-B927-5A9C0066A31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="166">
   <si>
     <t>No</t>
   </si>
@@ -549,6 +549,21 @@
   </si>
   <si>
     <t>3.  Generating start date and end date for the three months dynamically done etc</t>
+  </si>
+  <si>
+    <t>1. A two user-defined functioins were created to generate four month's start date dynamically to apply in few places</t>
+  </si>
+  <si>
+    <t>a). getting_start_date_four_months()</t>
+  </si>
+  <si>
+    <t>b). get_month_year_nums()</t>
+  </si>
+  <si>
+    <t>2. A few customizations  are  work in progress from downloading from QMVAR and continuing  etc</t>
+  </si>
+  <si>
+    <t>3. Recording during task execeution in database is work in progress</t>
   </si>
 </sst>
 </file>
@@ -4565,7 +4580,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D22"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4898,19 +4913,33 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="2"/>
+      <c r="A23" s="2">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45028</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -4919,7 +4948,9 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -4928,7 +4959,9 @@
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -4937,7 +4970,9 @@
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF8A687-478E-4E16-B927-5A9C0066A31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC01473-2C69-43AA-A6FB-3D3F6D882DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="168">
   <si>
     <t>No</t>
   </si>
@@ -564,6 +564,12 @@
   </si>
   <si>
     <t>3. Recording during task execeution in database is work in progress</t>
+  </si>
+  <si>
+    <t>1 .  A few customisations has been completed for download from GSPN and download from QMVAR ,  and the testing is work in progress for the PartsTurnOver task</t>
+  </si>
+  <si>
+    <t>2.  Recording task execution at RPALIVESTATUS and RPALIVELOG has been completed for downloading from GSPN, whereas recording task execution for  export from QMVAR is work in progress</t>
   </si>
 </sst>
 </file>
@@ -4579,8 +4585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147EB637-1488-436F-8BE1-C76F2358208E}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4978,19 +4984,33 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="2"/>
+      <c r="A28" s="2">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45029</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC01473-2C69-43AA-A6FB-3D3F6D882DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB317A5-3612-4C06-BFE7-D00EADD95F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="170">
   <si>
     <t>No</t>
   </si>
@@ -570,6 +570,12 @@
   </si>
   <si>
     <t>2.  Recording task execution at RPALIVESTATUS and RPALIVELOG has been completed for downloading from GSPN, whereas recording task execution for  export from QMVAR is work in progress</t>
+  </si>
+  <si>
+    <t>2 The updated source code has been shared.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. The customization and testing has been completed for the PartsTurnOver task for single SSC and multiple SSCs and they are functioning smoothly as expected.</t>
   </si>
 </sst>
 </file>
@@ -4586,7 +4592,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5016,19 +5022,33 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="2"/>
+      <c r="A30" s="2">
+        <v>9</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45033</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -5037,7 +5057,6 @@
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB317A5-3612-4C06-BFE7-D00EADD95F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E51C65A-0ECD-4954-9F17-541DDD6BFFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="172">
   <si>
     <t>No</t>
   </si>
@@ -576,6 +576,13 @@
   </si>
   <si>
     <t xml:space="preserve"> 1. The customization and testing has been completed for the PartsTurnOver task for single SSC and multiple SSCs and they are functioning smoothly as expected.</t>
+  </si>
+  <si>
+    <t>1. A few styles applying at PartsTurnOver Daily and Monthly reports using Openpyxl and Pandas library and sending these reports in the email as attachment are work
+ in progress.</t>
+  </si>
+  <si>
+    <t>2. A two user defined functions are created towards these reports.</t>
   </si>
 </sst>
 </file>
@@ -656,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -696,6 +703,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4589,10 +4600,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147EB637-1488-436F-8BE1-C76F2358208E}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5053,22 +5064,43 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="2"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="2"/>
+    <row r="32" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>10</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45034</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="E33" s="4"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D34" s="22"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D35" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E51C65A-0ECD-4954-9F17-541DDD6BFFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4E530F-3502-4EA0-B2DE-C00DB150FAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="173">
   <si>
     <t>No</t>
   </si>
@@ -583,6 +583,9 @@
   </si>
   <si>
     <t>2. A two user defined functions are created towards these reports.</t>
+  </si>
+  <si>
+    <t>1.  Creating a monthly report for the PartsTurnOver process, and sending it in the email has been completed, tested  for a single SSC, whereas testing for the Multiple SSCs is work in progress.</t>
   </si>
 </sst>
 </file>
@@ -663,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -703,10 +706,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4600,10 +4599,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147EB637-1488-436F-8BE1-C76F2358208E}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5074,7 +5073,7 @@
       <c r="C32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="11" t="s">
         <v>170</v>
       </c>
       <c r="E32" s="4">
@@ -5096,11 +5095,143 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D34" s="22"/>
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>11</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45035</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D35" s="21"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4E530F-3502-4EA0-B2DE-C00DB150FAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EA2012-19DD-4CFD-9EF8-0A4D6DE05B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="175">
   <si>
     <t>No</t>
   </si>
@@ -586,6 +586,12 @@
   </si>
   <si>
     <t>1.  Creating a monthly report for the PartsTurnOver process, and sending it in the email has been completed, tested  for a single SSC, whereas testing for the Multiple SSCs is work in progress.</t>
+  </si>
+  <si>
+    <t>1.  Creating a daily report for the PartsTurnOver process, and sending it in the email has been completed, tested  for a single SSC, whereas testing for the Multiple SSCs is work in progress.</t>
+  </si>
+  <si>
+    <t>2. we are working on to send an email with 12 files for all SSCs as one email.</t>
   </si>
 </sst>
 </file>
@@ -4602,7 +4608,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5116,20 +5122,34 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>12</v>
+      </c>
+      <c r="B35" s="3">
+        <v>45036</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EA2012-19DD-4CFD-9EF8-0A4D6DE05B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5659EA69-197A-4C9B-B97C-52AA9FF6B743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="179">
   <si>
     <t>No</t>
   </si>
@@ -592,6 +592,19 @@
   </si>
   <si>
     <t>2. we are working on to send an email with 12 files for all SSCs as one email.</t>
+  </si>
+  <si>
+    <t>2. A separate user-defined function has been created to send  email with all attachment as one</t>
+  </si>
+  <si>
+    <t>1. The testing with multiple SSCs has been completed for the PartsTurnOver process to create daily and monthly reports and the same will be attached as one email for 
+all the SSCs and it is running smoothly.</t>
+  </si>
+  <si>
+    <t>3. Once the email sent, all the reports will be moved to backup folder dynamically.</t>
+  </si>
+  <si>
+    <t>4. The updated source code has been shared to Mohan san.</t>
   </si>
 </sst>
 </file>
@@ -4608,7 +4621,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5163,20 +5176,34 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+    <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>13</v>
+      </c>
+      <c r="B38" s="3">
+        <v>45037</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -5185,7 +5212,9 @@
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -5194,7 +5223,9 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5659EA69-197A-4C9B-B97C-52AA9FF6B743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A3B970-0FD9-41FE-8330-A2AA5F8E3BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="182">
   <si>
     <t>No</t>
   </si>
@@ -605,6 +605,15 @@
   </si>
   <si>
     <t>4. The updated source code has been shared to Mohan san.</t>
+  </si>
+  <si>
+    <t>1. A correction received for the Parts Turn Over Task due to QMVAR failed and it has been fixed, tested and it is running smoothly</t>
+  </si>
+  <si>
+    <t>Augmented Reality</t>
+  </si>
+  <si>
+    <t>1. Doing Research and development about Augmented Reality is work in progress</t>
   </si>
 </sst>
 </file>
@@ -4620,15 +4629,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147EB637-1488-436F-8BE1-C76F2358208E}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="137" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
@@ -5240,19 +5249,35 @@
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="A43" s="2">
+        <v>14</v>
+      </c>
+      <c r="B43" s="3">
+        <v>45041</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A3B970-0FD9-41FE-8330-A2AA5F8E3BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9602CE05-1EA6-498D-98A2-D641DA8C38DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="185">
   <si>
     <t>No</t>
   </si>
@@ -614,6 +614,15 @@
   </si>
   <si>
     <t>1. Doing Research and development about Augmented Reality is work in progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Doing Research and development about openCV library for Augmented Reality </t>
+  </si>
+  <si>
+    <t>2. A  few customizations has been done like targetdate generating dynamically for the SRN Weekly Task process.</t>
+  </si>
+  <si>
+    <t>3. A scheduler approach has been implemented  and  whereas the testing and other steps are  work in progress</t>
   </si>
 </sst>
 </file>
@@ -4630,7 +4639,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5283,10 +5292,18 @@
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="A45" s="2">
+        <v>15</v>
+      </c>
+      <c r="B45" s="3">
+        <v>45042</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -5295,8 +5312,12 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.2</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
@@ -5304,7 +5325,9 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9602CE05-1EA6-498D-98A2-D641DA8C38DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9122AA01-C01C-483F-B1E0-4935FAAADB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="188">
   <si>
     <t>No</t>
   </si>
@@ -623,6 +623,16 @@
   </si>
   <si>
     <t>3. A scheduler approach has been implemented  and  whereas the testing and other steps are  work in progress</t>
+  </si>
+  <si>
+    <t>2. total value has been calculated for the Purchase total column</t>
+  </si>
+  <si>
+    <t>3. Whereas the other steps are work in progress</t>
+  </si>
+  <si>
+    <t>1. Generating a list and finding index position to insert blank rows at after 60th days, at 90th days has been completed by creating a user-defined functions for 
+the SRN Weekly Task process</t>
   </si>
 </sst>
 </file>
@@ -703,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -743,6 +753,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4636,10 +4650,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147EB637-1488-436F-8BE1-C76F2358208E}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5331,6 +5345,33 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>16</v>
+      </c>
+      <c r="B48" s="6">
+        <v>45043</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="E48" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>186</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9122AA01-C01C-483F-B1E0-4935FAAADB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7984BA9-0B38-4332-9CC2-5C1118E80715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="191">
   <si>
     <t>No</t>
   </si>
@@ -633,6 +633,17 @@
   <si>
     <t>1. Generating a list and finding index position to insert blank rows at after 60th days, at 90th days has been completed by creating a user-defined functions for 
 the SRN Weekly Task process</t>
+  </si>
+  <si>
+    <t>1. The email sending issue at  server side was the None error from cc mail address, it has been fixed, tested and it is running smoothly and Mohan san also informed us 
+that now it is sending the email attachments smoothly for the PartsTurnOver process.</t>
+  </si>
+  <si>
+    <t>2. A three user-defined functions has been created towards applying styles, inserting blank rows at different places,  applying different coloring based on days count
+ for the SRN Weekly reports and integrated the same code and the testing is work in progress.</t>
+  </si>
+  <si>
+    <t>3. Whereas sending these reports as attachment in the email and other calculations for the stock overview reports are work in progress</t>
   </si>
 </sst>
 </file>
@@ -713,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -753,10 +764,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4650,10 +4657,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147EB637-1488-436F-8BE1-C76F2358208E}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5353,24 +5360,60 @@
       <c r="B48" s="6">
         <v>45043</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="11" t="s">
         <v>187</v>
       </c>
       <c r="E48" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>17</v>
+      </c>
+      <c r="B51" s="6">
+        <v>45044</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E51" s="9">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D52" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E52" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7984BA9-0B38-4332-9CC2-5C1118E80715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A04E7F-4272-4476-9E06-DE7A3F462B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
   <sheets>
     <sheet name="JAN-23" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="193">
   <si>
     <t>No</t>
   </si>
@@ -644,6 +644,13 @@
   </si>
   <si>
     <t>3. Whereas sending these reports as attachment in the email and other calculations for the stock overview reports are work in progress</t>
+  </si>
+  <si>
+    <t>2. One user-defined function has been defined to apply style and to get summation of total stock value and it is implemented at SRN weekly 
+task and the testing is work in progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. A Correction Received for the Activit Task Daily failed  due to unspecified error, whereas after applying log with try/except, it is tested in multiple SSCs and it is functioning smoothly, </t>
   </si>
 </sst>
 </file>
@@ -724,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -764,6 +771,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4659,7 +4667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147EB637-1488-436F-8BE1-C76F2358208E}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="E51" sqref="E51:F51"/>
     </sheetView>
   </sheetViews>
@@ -5423,10 +5431,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83500A40-3933-4591-A83D-33EC1DDD795F}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5439,165 +5447,336 @@
     <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45048</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A04E7F-4272-4476-9E06-DE7A3F462B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EC5846-0517-45F9-A73E-A13A3C2C6A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="195">
   <si>
     <t>No</t>
   </si>
@@ -651,6 +651,12 @@
   </si>
   <si>
     <t xml:space="preserve">1. A Correction Received for the Activit Task Daily failed  due to unspecified error, whereas after applying log with try/except, it is tested in multiple SSCs and it is functioning smoothly, </t>
+  </si>
+  <si>
+    <t>1. The ACTIVITY task has been executed for the date from 28-04-2023 to 02-05-2023 and uploaded at QMVARLIVE for the SSC3,SSC6,SSC8,SSC9,SSC10 and SSC11. (five days)</t>
+  </si>
+  <si>
+    <t>2. A correction received for the Activity task due to sql query is returning None at Mohan san system  from  database and whereas, the same task is running at newbot, and after had a  discussion with Mohan san, we have to decided to not to check about task last run date, and will be implementing newly if the day is monday it should run from friday to sunday separately for each day and otherwise it will run on the previous day date, and it is work in progress.</t>
   </si>
 </sst>
 </file>
@@ -5434,7 +5440,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5523,24 +5529,42 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45049</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EC5846-0517-45F9-A73E-A13A3C2C6A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA4E274-3364-492F-BB9B-822BC31D3536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="198">
   <si>
     <t>No</t>
   </si>
@@ -657,6 +657,15 @@
   </si>
   <si>
     <t>2. A correction received for the Activity task due to sql query is returning None at Mohan san system  from  database and whereas, the same task is running at newbot, and after had a  discussion with Mohan san, we have to decided to not to check about task last run date, and will be implementing newly if the day is monday it should run from friday to sunday separately for each day and otherwise it will run on the previous day date, and it is work in progress.</t>
+  </si>
+  <si>
+    <t>2.It is tested with Single and Multiple SSCs and it is running smoothly.</t>
+  </si>
+  <si>
+    <t>1. Based on the discussion had with Mohan san, we have implemented a new logic to generate 3 days list if the dayname is 'Monday or else it will generate a Previous day  date to run task as usual for the ACTIVITY_DAILY Task.</t>
+  </si>
+  <si>
+    <t>3. Created a user-defined function to send email with attachments for all SSCs and Single SSCs and the same had been implemented and the testing has been completed for the single SSC and whereas testing at multiple SSCs is work in progress for the SRN Weekly process task</t>
   </si>
 </sst>
 </file>
@@ -5440,7 +5449,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5569,13 +5578,25 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45050</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -5584,20 +5605,28 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA4E274-3364-492F-BB9B-822BC31D3536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125C231B-4CE3-4F54-A608-AA4B3A70A321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="201">
   <si>
     <t>No</t>
   </si>
@@ -666,6 +666,15 @@
   </si>
   <si>
     <t>3. Created a user-defined function to send email with attachments for all SSCs and Single SSCs and the same had been implemented and the testing has been completed for the single SSC and whereas testing at multiple SSCs is work in progress for the SRN Weekly process task</t>
+  </si>
+  <si>
+    <t>AUG REALITY</t>
+  </si>
+  <si>
+    <t>2. Usage of system camera with OpenCv has been studied and accessed,  a video has been recorded and stored it using OpenCV module and the reading the image and converting into gray color  and stored it are done and other steps are in progress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Created a Final reports for the SRN weekly process has been completed,  file moving to backup, little beauty correction also compeleted and whereas a testing with multiple SSCs is going on </t>
   </si>
 </sst>
 </file>
@@ -5449,7 +5458,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5631,22 +5640,38 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="2"/>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45051</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125C231B-4CE3-4F54-A608-AA4B3A70A321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4664D711-4DAF-4F06-9187-6279FBC3E295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="203">
   <si>
     <t>No</t>
   </si>
@@ -675,6 +675,12 @@
   </si>
   <si>
     <t xml:space="preserve">1. Created a Final reports for the SRN weekly process has been completed,  file moving to backup, little beauty correction also compeleted and whereas a testing with multiple SSCs is going on </t>
+  </si>
+  <si>
+    <t>1. The testing at SRN weekly task process has been completed at multiple SSCs, generating reports, applying styles, formatting colums and sending these reports as single attachment in email smoothly and the updated source code has been shared.</t>
+  </si>
+  <si>
+    <t>2. Doing Research and development about the Augmented Reality in OpenCV and learned about removing background image and adding new background images to the foreground images.</t>
   </si>
 </sst>
 </file>
@@ -5458,7 +5464,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5678,22 +5684,38 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="2"/>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45054</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4664D711-4DAF-4F06-9187-6279FBC3E295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B7DD70-61CB-4B90-A812-AE04C464B553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="207">
   <si>
     <t>No</t>
   </si>
@@ -681,6 +681,18 @@
   </si>
   <si>
     <t>2. Doing Research and development about the Augmented Reality in OpenCV and learned about removing background image and adding new background images to the foreground images.</t>
+  </si>
+  <si>
+    <t>1. A few environment setup has been done and tested the olbbot machine with GSPN task, it is running smoothly.</t>
+  </si>
+  <si>
+    <t>2. Doing Research and development about the Augmented Reality using OpenCV python and it is in progress</t>
+  </si>
+  <si>
+    <t>1. A few enhancement has been requested by Mohan san at SRN Weekly task process to place purchase_total and total_stock_value in the email body and the same had been implemented, a few fine tuning about sending email structure and it is also done. Now the testing is in progress.</t>
+  </si>
+  <si>
+    <t>2. Doing Research and development about the Augmented Reality using OpenCV python and it is in progress based on the feedback received from the meeting today.</t>
   </si>
 </sst>
 </file>
@@ -5463,8 +5475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83500A40-3933-4591-A83D-33EC1DDD795F}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5723,12 +5735,24 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="2">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45055</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -5736,30 +5760,52 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="2"/>
+    <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45056</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B7DD70-61CB-4B90-A812-AE04C464B553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DC7965-3543-4B1F-8B62-43B9C2466061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="209">
   <si>
     <t>No</t>
   </si>
@@ -693,6 +693,12 @@
   </si>
   <si>
     <t>2. Doing Research and development about the Augmented Reality using OpenCV python and it is in progress based on the feedback received from the meeting today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. A beauty correction received for the SRN weekly task to display  the inline table at email body, it has been completed, testing is work in progress </t>
+  </si>
+  <si>
+    <t>2. Doing Research and Development Augmented Reality is in progress</t>
   </si>
 </sst>
 </file>
@@ -5476,7 +5482,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5813,12 +5819,24 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="2"/>
+      <c r="A18" s="2">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45057</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -5826,8 +5844,12 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DC7965-3543-4B1F-8B62-43B9C2466061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BB47A4-E75B-48D7-BD2D-77E8184C5861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="211">
   <si>
     <t>No</t>
   </si>
@@ -699,6 +699,12 @@
   </si>
   <si>
     <t>2. Doing Research and Development Augmented Reality is in progress</t>
+  </si>
+  <si>
+    <t>1. A few correction in email body table has been done and testing with multiple SSCs are work in progress as long run process and each SSC will run for minimum 2 hours during testing at GSPN site.</t>
+  </si>
+  <si>
+    <t>2. Doing Research and Development Augmented Reality is in progress (accessing mobile with system)</t>
   </si>
 </sst>
 </file>
@@ -5481,8 +5487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83500A40-3933-4591-A83D-33EC1DDD795F}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5856,13 +5862,25 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="2"/>
+    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45058</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -5871,7 +5889,9 @@
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>210</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BB47A4-E75B-48D7-BD2D-77E8184C5861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A30EA9-234F-4DC0-9E76-1222BD78C28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="214">
   <si>
     <t>No</t>
   </si>
@@ -705,6 +705,15 @@
   </si>
   <si>
     <t>2. Doing Research and Development Augmented Reality is in progress (accessing mobile with system)</t>
+  </si>
+  <si>
+    <t>1. The testing at SRN weekly task process with multiple SSCs is going on and it will be completed by 9:00pm tonight.</t>
+  </si>
+  <si>
+    <t>3. A correction received from the activity daily task, and  it has been fixed, tested and it is running smoothly.</t>
+  </si>
+  <si>
+    <t>2. Doing Research and Development  about Augmented Reality is in progress (accessing mobile with system and applying background images are done) whereas the a few blurring or distortion at livestream videos occurring and yet to be removed</t>
   </si>
 </sst>
 </file>
@@ -5488,7 +5497,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5899,21 +5908,35 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="2"/>
+      <c r="A22" s="2">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45061</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -5924,9 +5947,15 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="2"/>
+      <c r="D24" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A30EA9-234F-4DC0-9E76-1222BD78C28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D282B50-B231-4E46-B1CB-CCE1EE064EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="218">
   <si>
     <t>No</t>
   </si>
@@ -714,6 +714,18 @@
   </si>
   <si>
     <t>2. Doing Research and Development  about Augmented Reality is in progress (accessing mobile with system and applying background images are done) whereas the a few blurring or distortion at livestream videos occurring and yet to be removed</t>
+  </si>
+  <si>
+    <t>1. Doing Research and Development about Augmented Reality and the learning is in progress</t>
+  </si>
+  <si>
+    <t>2. Using  system webcam, we could capture the live and remving background, and adding new background images</t>
+  </si>
+  <si>
+    <t>3. Using mobile IP WebCam app, we could capture the live and removing background, adding a new background for the live is done.</t>
+  </si>
+  <si>
+    <t>4. Loading the image from the system and removing the background and adding a background image are done.</t>
   </si>
 </sst>
 </file>
@@ -5496,8 +5508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83500A40-3933-4591-A83D-33EC1DDD795F}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5961,32 +5973,84 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
+      <c r="A25" s="2">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45062</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D282B50-B231-4E46-B1CB-CCE1EE064EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B745BE-828D-4763-8BED-BD68586B4EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="222">
   <si>
     <t>No</t>
   </si>
@@ -726,6 +726,18 @@
   </si>
   <si>
     <t>4. Loading the image from the system and removing the background and adding a background image are done.</t>
+  </si>
+  <si>
+    <t>1.  Doing Research and Development about Augmented Reality is in progress (changing background video of live stream  to local video and etc)</t>
+  </si>
+  <si>
+    <t>Leave due to urgent</t>
+  </si>
+  <si>
+    <t>1. A few corrections received from the Warranty and GRS-Daily tasks failed due to server down, and it has been fixed by new logic to run task at any machine and tested it at few SSCs and they are running smoothly.</t>
+  </si>
+  <si>
+    <t>2. Doing Research and Development about Augmented Reality and continuing the learning process</t>
   </si>
 </sst>
 </file>
@@ -5508,8 +5520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83500A40-3933-4591-A83D-33EC1DDD795F}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6041,28 +6053,67 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="5"/>
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>12</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45063</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
-      <c r="D31" s="8"/>
+      <c r="A31">
+        <v>13</v>
+      </c>
+      <c r="B31" s="6">
+        <v>45064</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>219</v>
+      </c>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D32" s="8"/>
+    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>14</v>
+      </c>
+      <c r="B32" s="6">
+        <v>45065</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
-      <c r="D33" s="8"/>
+      <c r="C33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="E33" s="9"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B745BE-828D-4763-8BED-BD68586B4EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1B3123-8214-4CC3-A9E0-5255AEC6AA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="224">
   <si>
     <t>No</t>
   </si>
@@ -738,6 +738,12 @@
   </si>
   <si>
     <t>2. Doing Research and Development about Augmented Reality and continuing the learning process</t>
+  </si>
+  <si>
+    <t>1. Doing Research and Development about Augmented Reality and continuing the learning process</t>
+  </si>
+  <si>
+    <t>2. Around 80% has been completed for the POC and other steps are work in progress for the Augmented Readlity.</t>
   </si>
 </sst>
 </file>
@@ -818,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -859,6 +865,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5521,7 +5530,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6106,7 +6115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
       <c r="C33" t="s">
         <v>198</v>
@@ -6116,21 +6125,42 @@
       </c>
       <c r="E33" s="9"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34" s="6">
+        <v>45068</v>
+      </c>
+      <c r="C34" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D35" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D36" s="8"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B37" s="6"/>
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D38" s="8"/>
       <c r="E38" s="9"/>
     </row>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1B3123-8214-4CC3-A9E0-5255AEC6AA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A134E2C-13FE-4343-A051-760DF712A6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="225">
   <si>
     <t>No</t>
   </si>
@@ -744,6 +744,9 @@
   </si>
   <si>
     <t>2. Around 80% has been completed for the POC and other steps are work in progress for the Augmented Readlity.</t>
+  </si>
+  <si>
+    <t>2. The first POC towards Augmented Readlity has been completed with different overlay images.</t>
   </si>
 </sst>
 </file>
@@ -824,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -865,9 +868,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5527,10 +5527,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83500A40-3933-4591-A83D-33EC1DDD795F}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6084,85 +6084,153 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>13</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="3">
         <v>45064</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>14</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="3">
         <v>45065</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E32" s="9">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="6"/>
-      <c r="C33" t="s">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="E33" s="4"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>15</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="3">
         <v>45068</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="5" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="6"/>
-      <c r="D35" s="8" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="4">
         <v>0.8</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="6"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>16</v>
+      </c>
+      <c r="B36" s="3">
+        <v>45069</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A134E2C-13FE-4343-A051-760DF712A6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C00B5E-BB9C-4DA2-9483-AFF3DED59ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="226">
   <si>
     <t>No</t>
   </si>
@@ -747,6 +747,9 @@
   </si>
   <si>
     <t>2. The first POC towards Augmented Readlity has been completed with different overlay images.</t>
+  </si>
+  <si>
+    <t>1. Doing Research and Development about Augmented Reality and continuing the learning process (multiple image overlay at background process is work in progress)</t>
   </si>
 </sst>
 </file>
@@ -5529,8 +5532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83500A40-3933-4591-A83D-33EC1DDD795F}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6210,13 +6213,25 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="2"/>
+    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>17</v>
+      </c>
+      <c r="B38" s="3">
+        <v>45070</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C00B5E-BB9C-4DA2-9483-AFF3DED59ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0277327A-6D0E-4860-B49F-482331E87C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="227">
   <si>
     <t>No</t>
   </si>
@@ -750,6 +750,10 @@
   </si>
   <si>
     <t>1. Doing Research and Development about Augmented Reality and continuing the learning process (multiple image overlay at background process is work in progress)</t>
+  </si>
+  <si>
+    <t>1. Doing Research and Development about Augmented Reality and continuing the learning process (multiple images has been placed as  overlay at single background  image)
+2. Multiple images overlay done</t>
   </si>
 </sst>
 </file>
@@ -5533,7 +5537,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6236,13 +6240,25 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+    <row r="39" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>18</v>
+      </c>
+      <c r="B39" s="3">
+        <v>45071</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0277327A-6D0E-4860-B49F-482331E87C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFB82E0-595D-4E3C-9485-E97B39BBF96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="228">
   <si>
     <t>No</t>
   </si>
@@ -754,6 +754,9 @@
   <si>
     <t>1. Doing Research and Development about Augmented Reality and continuing the learning process (multiple images has been placed as  overlay at single background  image)
 2. Multiple images overlay done</t>
+  </si>
+  <si>
+    <t>1. Doing Research and Development about Augmented Reality and continuing the learning process using Unity software.</t>
   </si>
 </sst>
 </file>
@@ -834,7 +837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -875,6 +878,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5534,10 +5538,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83500A40-3933-4591-A83D-33EC1DDD795F}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6263,8 +6267,23 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="22">
+        <v>19</v>
+      </c>
+      <c r="B40" s="6">
+        <v>45072</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" t="s">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFB82E0-595D-4E3C-9485-E97B39BBF96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A65CA4-BB15-4055-BB43-0C5A0ECA65C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="230">
   <si>
     <t>No</t>
   </si>
@@ -757,6 +757,12 @@
   </si>
   <si>
     <t>1. Doing Research and Development about Augmented Reality and continuing the learning process using Unity software.</t>
+  </si>
+  <si>
+    <t>2. Learning Unity software towards Augmented Reality</t>
+  </si>
+  <si>
+    <t>1. Went to Mambalam to collect my system due to hard disk weak and replaced this with new hard disc, installed OS and installing the all other softwares like python with related libraries, Unity  software for Augmented Reality etc.</t>
   </si>
 </sst>
 </file>
@@ -786,7 +792,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -833,11 +839,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -878,7 +897,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5538,10 +5561,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83500A40-3933-4591-A83D-33EC1DDD795F}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6268,18 +6291,215 @@
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+      <c r="A40" s="10">
         <v>19</v>
       </c>
       <c r="B40" s="6">
         <v>45072</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="22" t="s">
         <v>198</v>
       </c>
       <c r="D40" t="s">
         <v>227</v>
       </c>
+    </row>
+    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="23">
+        <v>20</v>
+      </c>
+      <c r="B41" s="3">
+        <v>45075</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A65CA4-BB15-4055-BB43-0C5A0ECA65C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ABA1A5-6788-48E1-B117-5BDA34E687BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="231">
   <si>
     <t>No</t>
   </si>
@@ -763,6 +763,9 @@
   </si>
   <si>
     <t>1. Went to Mambalam to collect my system due to hard disk weak and replaced this with new hard disc, installed OS and installing the all other softwares like python with related libraries, Unity  software for Augmented Reality etc.</t>
+  </si>
+  <si>
+    <t>1. Learing Unity Software towards Augmented Readlity etc (Learning about Menu and Tools in Unity software)</t>
   </si>
 </sst>
 </file>
@@ -856,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -898,10 +901,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5564,7 +5563,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6305,16 +6304,16 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="23">
+      <c r="A41" s="2">
         <v>20</v>
       </c>
       <c r="B41" s="3">
         <v>45075</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="5" t="s">
         <v>229</v>
       </c>
       <c r="E41" s="2"/>
@@ -6325,9 +6324,9 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="B42" s="3"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="5" t="s">
         <v>228</v>
       </c>
       <c r="E42" s="2"/>
@@ -6337,10 +6336,18 @@
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="A43" s="2">
+        <v>21</v>
+      </c>
+      <c r="B43" s="3">
+        <v>45076</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ABA1A5-6788-48E1-B117-5BDA34E687BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6644B841-2068-4F16-AF6D-0579E505AF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="233">
   <si>
     <t>No</t>
   </si>
@@ -766,6 +766,12 @@
   </si>
   <si>
     <t>1. Learing Unity Software towards Augmented Readlity etc (Learning about Menu and Tools in Unity software)</t>
+  </si>
+  <si>
+    <t>1. Doing Research and Development to convert python App to Apk for mobile Android and the learning is in progress</t>
+  </si>
+  <si>
+    <t>2. Also, we need to study the Kivy module to create app for the same and it is in progress.</t>
   </si>
 </sst>
 </file>
@@ -5563,7 +5569,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6355,10 +6361,18 @@
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="A44" s="2">
+        <v>22</v>
+      </c>
+      <c r="B44" s="3">
+        <v>45077</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -6369,7 +6383,9 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6644B841-2068-4F16-AF6D-0579E505AF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EF2320-8617-4616-941C-30D34FE666D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
   <sheets>
     <sheet name="JAN-23" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="238">
   <si>
     <t>No</t>
   </si>
@@ -772,6 +772,21 @@
   </si>
   <si>
     <t>2. Also, we need to study the Kivy module to create app for the same and it is in progress.</t>
+  </si>
+  <si>
+    <t>1. A few correction received from the DRS daily task due to file existing error.</t>
+  </si>
+  <si>
+    <t>The file exist error during file renaming and moving to download folder once download is complete has been fixed by using shutil.move(fname,dname) instead of os.rename(fname,dname) with try/except along with log recording and it is tested at few SSCs and it is functioning smoothly at DRS Daily task.</t>
+  </si>
+  <si>
+    <t>2.  The Service Order Pending Monthly task is running for the SSC11 and it is in progress</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>3. The converting background applying task to dynamic responsive task is work in progress</t>
   </si>
 </sst>
 </file>
@@ -5568,8 +5583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83500A40-3933-4591-A83D-33EC1DDD795F}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6532,10 +6547,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74959F7F-F66C-4D61-9F9B-A5593A4CED83}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6546,7 +6561,7 @@
     <col min="7" max="7" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6569,89 +6584,123 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D3" s="8"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45078</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+      <c r="D3" s="8" t="s">
+        <v>234</v>
+      </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>235</v>
+      </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
+      <c r="C5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="D8" s="8"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
     </row>
@@ -6661,11 +6710,11 @@
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="6"/>
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
     </row>
@@ -6680,12 +6729,12 @@
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
       <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
@@ -6698,9 +6747,7 @@
       <c r="E30" s="9"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D32" s="8"/>
@@ -6709,15 +6756,12 @@
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="6"/>
       <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="6"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D36" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EF2320-8617-4616-941C-30D34FE666D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9743B56C-E5E3-4635-8F31-66409ED8E867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="240">
   <si>
     <t>No</t>
   </si>
@@ -787,6 +787,12 @@
   </si>
   <si>
     <t>3. The converting background applying task to dynamic responsive task is work in progress</t>
+  </si>
+  <si>
+    <t>1. The converting background applying task to dynamic responsive task is work in progress</t>
+  </si>
+  <si>
+    <t>2. Changing the background has been completed dynamically,  whereas changing background by click event is work in progress</t>
   </si>
 </sst>
 </file>
@@ -6550,37 +6556,40 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="112.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="110.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6604,152 +6613,239 @@
         <v>10</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-      <c r="D3" s="8" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="D4" s="8" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="4">
         <v>0.4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45079</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E8" s="9"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D10" s="8"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9743B56C-E5E3-4635-8F31-66409ED8E867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F23B02-AEA2-44DB-8597-4651D8954A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="241">
   <si>
     <t>No</t>
   </si>
@@ -793,6 +793,9 @@
   </si>
   <si>
     <t>2. Changing the background has been completed dynamically,  whereas changing background by click event is work in progress</t>
+  </si>
+  <si>
+    <t>1. Changing the background has been completed dynamically using Flask framework and saving the combined image has been completed,</t>
   </si>
 </sst>
 </file>
@@ -6556,7 +6559,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6683,13 +6686,23 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45082</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F23B02-AEA2-44DB-8597-4651D8954A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54DA673-CEFF-474D-97A6-4733FE42AACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="242">
   <si>
     <t>No</t>
   </si>
@@ -796,6 +796,9 @@
   </si>
   <si>
     <t>1. Changing the background has been completed dynamically using Flask framework and saving the combined image has been completed,</t>
+  </si>
+  <si>
+    <t>1. Taking selfie with new background has been completed, whereas other steps are work in progress to render it in web browser</t>
   </si>
 </sst>
 </file>
@@ -889,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -931,6 +934,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5592,8 +5596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83500A40-3933-4591-A83D-33EC1DDD795F}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6556,15 +6560,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74959F7F-F66C-4D61-9F9B-A5593A4CED83}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="110.21875" bestFit="1" customWidth="1"/>
@@ -6601,75 +6605,69 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
+        <v>45077</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
         <v>45078</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H4" s="20"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3">
-        <v>45079</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="2"/>
@@ -6678,58 +6676,86 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="D7" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="B8" s="3">
-        <v>45082</v>
+        <v>45079</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>236</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45082</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45083</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -6737,7 +6763,7 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
@@ -6770,7 +6796,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
@@ -6779,7 +6805,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="2"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
@@ -6791,7 +6817,7 @@
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
@@ -6800,25 +6826,34 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="6"/>
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
     </row>
@@ -6828,7 +6863,6 @@
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
@@ -6838,7 +6872,9 @@
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
       <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
@@ -6846,9 +6882,7 @@
       <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
@@ -6856,21 +6890,31 @@
       <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
       <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="6"/>
       <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="6"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="6"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D37" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54DA673-CEFF-474D-97A6-4733FE42AACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB1214A-804E-4D2E-BA92-F923158E1EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="244">
   <si>
     <t>No</t>
   </si>
@@ -799,6 +799,12 @@
   </si>
   <si>
     <t>1. Taking selfie with new background has been completed, whereas other steps are work in progress to render it in web browser</t>
+  </si>
+  <si>
+    <t>2. Doing research and development to get clear foreground video after applying the background image and it is learning in progress</t>
+  </si>
+  <si>
+    <t>3. Background subtraction from video stream is work in progress</t>
   </si>
 </sst>
 </file>
@@ -892,7 +898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -934,7 +940,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6563,7 +6568,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6613,9 +6618,9 @@
       <c r="D2" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -6624,9 +6629,9 @@
       <c r="D3" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -6759,10 +6764,18 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45084</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -6771,7 +6784,9 @@
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -6780,7 +6795,9 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB1214A-804E-4D2E-BA92-F923158E1EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CD0929-AD91-425A-AA8D-15EB6EBDFA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="246">
   <si>
     <t>No</t>
   </si>
@@ -805,6 +805,12 @@
   </si>
   <si>
     <t>3. Background subtraction from video stream is work in progress</t>
+  </si>
+  <si>
+    <t>1. Doing research and development to get clear foreground video after applying the background image and it is learning in progress</t>
+  </si>
+  <si>
+    <t>2. Background subtraction from video stream is work in progress</t>
   </si>
 </sst>
 </file>
@@ -6568,7 +6574,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6803,10 +6809,18 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="5"/>
+      <c r="A15" s="2">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45085</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>244</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -6815,7 +6829,9 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CD0929-AD91-425A-AA8D-15EB6EBDFA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BFD064-6FFC-4E2F-9427-323EC8264B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="247">
   <si>
     <t>No</t>
   </si>
@@ -811,6 +811,9 @@
   </si>
   <si>
     <t>2. Background subtraction from video stream is work in progress</t>
+  </si>
+  <si>
+    <t>2. Studying the color applying to create foreground image is work in progress</t>
   </si>
 </sst>
 </file>
@@ -6574,7 +6577,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6837,10 +6840,18 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="5"/>
+      <c r="A17" s="2">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45086</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>244</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -6849,7 +6860,9 @@
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BFD064-6FFC-4E2F-9427-323EC8264B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF67CF77-148C-4131-AE20-790FDC48AF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="254">
   <si>
     <t>No</t>
   </si>
@@ -814,6 +814,27 @@
   </si>
   <si>
     <t>2. Studying the color applying to create foreground image is work in progress</t>
+  </si>
+  <si>
+    <t>1. Installation has been completed for XAMPP, and placed the files which received from Kalairasan san, it is working at my system</t>
+  </si>
+  <si>
+    <t>2. Installation of XAMPP at New bot has been done based on Mohan san, and still a few issues at newbot, and the bot machine to be to test from remotely,</t>
+  </si>
+  <si>
+    <t>3. My system can be accessed as server, whereas the webcam is not accessing at client side and yet to be studied to fix this.</t>
+  </si>
+  <si>
+    <t>1. The distortion issue at video stream after changing the background, trying to fix it and it is learning in progress</t>
+  </si>
+  <si>
+    <t>2. Also we need to study about Google colab to fix this this and it is yet to start.</t>
+  </si>
+  <si>
+    <t>1. The learning the OPENCV Framework towards to get clear image after changing the background  with different approach and it is learning in progress.</t>
+  </si>
+  <si>
+    <t>2. Also we have tried to get clear foreground image after  applying twice background based on Mamatha san, still the issue exists.</t>
   </si>
 </sst>
 </file>
@@ -907,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -949,6 +970,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6576,8 +6602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74959F7F-F66C-4D61-9F9B-A5593A4CED83}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6868,19 +6894,29 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="5"/>
+      <c r="A19" s="2">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45089</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>247</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>248</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -6889,77 +6925,165 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>249</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
+      <c r="A22" s="2">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45090</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
+      <c r="A23" s="2">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45091</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>12</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45092</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D29" s="8"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
       <c r="D36" s="8"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D37" s="8"/>
     </row>
   </sheetData>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF67CF77-148C-4131-AE20-790FDC48AF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DAE647-53D1-4001-AA59-71E1236815BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="256">
   <si>
     <t>No</t>
   </si>
@@ -835,6 +835,12 @@
   </si>
   <si>
     <t>2. Also we have tried to get clear foreground image after  applying twice background based on Mamatha san, still the issue exists.</t>
+  </si>
+  <si>
+    <t>2. Supported to responsive design to take a picture with proper screen size.</t>
+  </si>
+  <si>
+    <t>1. Doing Research and development towards to get a clear video without distortions after changing the removing background using OpenCV framework and etc.</t>
   </si>
 </sst>
 </file>
@@ -6603,7 +6609,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7003,11 +7009,19 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="5"/>
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>13</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45093</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -7016,7 +7030,9 @@
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>254</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DAE647-53D1-4001-AA59-71E1236815BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727E9795-2EB3-46A4-8CDE-2DEFBD1355FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="258">
   <si>
     <t>No</t>
   </si>
@@ -841,6 +841,12 @@
   </si>
   <si>
     <t>1. Doing Research and development towards to get a clear video without distortions after changing the removing background using OpenCV framework and etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Doing Research and development in OpenCV framework to change realtime background and to get a clear foreground video and it is learning progress. </t>
+  </si>
+  <si>
+    <t>2. Also studying about Flask with OpenCV.</t>
   </si>
 </sst>
 </file>
@@ -6609,7 +6615,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7037,11 +7043,19 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="5"/>
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>14</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45096</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>256</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -7050,7 +7064,9 @@
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>257</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727E9795-2EB3-46A4-8CDE-2DEFBD1355FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489FE015-69C9-4A5F-97BC-7F47394D5F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="260">
   <si>
     <t>No</t>
   </si>
@@ -847,6 +847,12 @@
   </si>
   <si>
     <t>2. Also studying about Flask with OpenCV.</t>
+  </si>
+  <si>
+    <t>2. Doing research and development  about Flask with OpenCV towards responsive designings related to Augmented Reality.</t>
+  </si>
+  <si>
+    <t>1. Supporting to responsive design to change background and best fit to screen at mobile device.</t>
   </si>
 </sst>
 </file>
@@ -6614,8 +6620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74959F7F-F66C-4D61-9F9B-A5593A4CED83}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7072,10 +7078,18 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="5"/>
+      <c r="A31" s="2">
+        <v>15</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45097</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>259</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -7084,7 +7098,9 @@
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>258</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489FE015-69C9-4A5F-97BC-7F47394D5F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAE177F-8CF9-401C-B469-E48E99B50029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="264">
   <si>
     <t>No</t>
   </si>
@@ -853,6 +853,18 @@
   </si>
   <si>
     <t>1. Supporting to responsive design to change background and best fit to screen at mobile device.</t>
+  </si>
+  <si>
+    <t>Web Dev</t>
+  </si>
+  <si>
+    <t>2. Studying and Analysing the CrowdFunding document and progress in analysing</t>
+  </si>
+  <si>
+    <t>1. Doing Research and studying about FLASK Frame work towards web development</t>
+  </si>
+  <si>
+    <t>3. Supporting to responsive design for the AR</t>
   </si>
 </sst>
 </file>
@@ -6618,10 +6630,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74959F7F-F66C-4D61-9F9B-A5593A4CED83}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7106,10 +7118,18 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="5"/>
+      <c r="A33" s="2">
+        <v>16</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45098</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>262</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -7118,21 +7138,113 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D35" s="8"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="6"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D37" s="8"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAE177F-8CF9-401C-B469-E48E99B50029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F02D870-7BF8-4AEC-AEAD-2090FC30744F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="268">
   <si>
     <t>No</t>
   </si>
@@ -865,6 +865,18 @@
   </si>
   <si>
     <t>3. Supporting to responsive design for the AR</t>
+  </si>
+  <si>
+    <t>CrowdFunding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Studied and Analyzed the CrowdFunding document </t>
+  </si>
+  <si>
+    <t>2. Installation of Visual Studio 2019 has been completed and the learning is in progress</t>
+  </si>
+  <si>
+    <t>3. Installation of SSMS 19 mssql server has been completed</t>
   </si>
 </sst>
 </file>
@@ -6633,14 +6645,14 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="110.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
@@ -7157,10 +7169,18 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="5"/>
+      <c r="A36" s="2">
+        <v>17</v>
+      </c>
+      <c r="B36" s="3">
+        <v>45099</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>265</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -7169,7 +7189,9 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>266</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -7178,7 +7200,9 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F02D870-7BF8-4AEC-AEAD-2090FC30744F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE7A2D8-B4C3-47D2-844C-A6483EEFC6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="271">
   <si>
     <t>No</t>
   </si>
@@ -877,6 +877,15 @@
   </si>
   <si>
     <t>3. Installation of SSMS 19 mssql server has been completed</t>
+  </si>
+  <si>
+    <t>DOTNET</t>
+  </si>
+  <si>
+    <t>1. Learning the ASP.NET is in progress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Learned About ASP.NET web controls </t>
   </si>
 </sst>
 </file>
@@ -6645,7 +6654,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7208,10 +7217,18 @@
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="A39" s="2">
+        <v>18</v>
+      </c>
+      <c r="B39" s="3">
+        <v>45100</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -7220,7 +7237,9 @@
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>270</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE7A2D8-B4C3-47D2-844C-A6483EEFC6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45440B5B-D017-4181-B0C4-D06B475253D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="272">
   <si>
     <t>No</t>
   </si>
@@ -886,6 +886,9 @@
   </si>
   <si>
     <t xml:space="preserve">2. Learned About ASP.NET web controls </t>
+  </si>
+  <si>
+    <t>2. Learning the registration form with database in ASP.NET is in progress</t>
   </si>
 </sst>
 </file>
@@ -6654,7 +6657,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7245,10 +7248,18 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="A41" s="2">
+        <v>19</v>
+      </c>
+      <c r="B41" s="3">
+        <v>45103</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -7257,7 +7268,9 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45440B5B-D017-4181-B0C4-D06B475253D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C39303-8C14-4E96-B36E-FF9BE58EEC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="278">
   <si>
     <t>No</t>
   </si>
@@ -889,6 +889,25 @@
   </si>
   <si>
     <t>2. Learning the registration form with database in ASP.NET is in progress</t>
+  </si>
+  <si>
+    <t>1. Learning the registration form with database in ASP.NET is in progress (CRUD Operation means Create, Read, Update and Delete 
+operation at MSSQL Server using ASP.NET with C#)</t>
+  </si>
+  <si>
+    <t>2. Data viewing in the GRIDVIEW</t>
+  </si>
+  <si>
+    <t>Android Studio</t>
+  </si>
+  <si>
+    <t>1. Downloading and Installation  of the Android Studio has been completed successfully.</t>
+  </si>
+  <si>
+    <t>2. Based on Matheshwari instruction 'chigmunk version of Android studio has been (old version) installed</t>
+  </si>
+  <si>
+    <t>3. The learning process about Android Studio is in progress</t>
   </si>
 </sst>
 </file>
@@ -6654,10 +6673,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74959F7F-F66C-4D61-9F9B-A5593A4CED83}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7275,11 +7294,19 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>20</v>
+      </c>
+      <c r="B43" s="3">
+        <v>45104</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>272</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -7288,19 +7315,78 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="A45" s="2">
+        <v>21</v>
+      </c>
+      <c r="B45" s="3">
+        <v>45105</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C39303-8C14-4E96-B36E-FF9BE58EEC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D601DD74-A554-4FBA-8121-B4AE04747325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
   <sheets>
     <sheet name="JAN-23" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="282">
   <si>
     <t>No</t>
   </si>
@@ -904,10 +904,22 @@
     <t>1. Downloading and Installation  of the Android Studio has been completed successfully.</t>
   </si>
   <si>
-    <t>2. Based on Matheshwari instruction 'chigmunk version of Android studio has been (old version) installed</t>
-  </si>
-  <si>
     <t>3. The learning process about Android Studio is in progress</t>
+  </si>
+  <si>
+    <t>2. Based on Matheshwari san's instruction 'chigmunk version of Android studio has been (old version) installed</t>
+  </si>
+  <si>
+    <t>1. Learnt about that how to create a simple application in android studio, studied about folder structures and details about each folder and its important, and how to  call the text and apply in layout dynamically and other is learning is in progress</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>1. Doing Research and Development about Android and the learning process is progress</t>
+  </si>
+  <si>
+    <t>2. Learnt, Practised and developed a simple calculator Application  and viewed in system emulator</t>
   </si>
 </sst>
 </file>
@@ -6675,8 +6687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74959F7F-F66C-4D61-9F9B-A5593A4CED83}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7344,7 +7356,7 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -7355,17 +7367,25 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>22</v>
+      </c>
+      <c r="B48" s="3">
+        <v>45107</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -7397,8 +7417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8CB0DD-DE15-4519-83E5-4C23C223B412}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7432,12 +7452,25 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-      <c r="D2" s="8"/>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>45110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>280</v>
+      </c>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
+      <c r="D3" t="s">
+        <v>281</v>
+      </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D601DD74-A554-4FBA-8121-B4AE04747325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D13F3C-9317-488A-B4E7-4046D5A5C8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="291">
   <si>
     <t>No</t>
   </si>
@@ -879,9 +879,6 @@
     <t>3. Installation of SSMS 19 mssql server has been completed</t>
   </si>
   <si>
-    <t>DOTNET</t>
-  </si>
-  <si>
     <t>1. Learning the ASP.NET is in progress.</t>
   </si>
   <si>
@@ -920,6 +917,36 @@
   </si>
   <si>
     <t>2. Learnt, Practised and developed a simple calculator Application  and viewed in system emulator</t>
+  </si>
+  <si>
+    <t>DOTNET/CrowdFundig</t>
+  </si>
+  <si>
+    <t>Wordpress</t>
+  </si>
+  <si>
+    <t>1. The XAMPP server has been installed (Apache and MySQL)</t>
+  </si>
+  <si>
+    <t>2.  The Wordpress framework  has been installed</t>
+  </si>
+  <si>
+    <t>3. The GiveWP plugin is installed towards crowd fund raising site development</t>
+  </si>
+  <si>
+    <t>4. Please find the simple report about the forementioned points as attachment.</t>
+  </si>
+  <si>
+    <t>5. styling and color are yet to be applied.</t>
+  </si>
+  <si>
+    <t>3. Doing Research and Development about Android and the learning process is progress</t>
+  </si>
+  <si>
+    <t>2. Exported  a Calculator App as APK file and installed at Android mobile, tested and it is functioning smoothly</t>
+  </si>
+  <si>
+    <t>1. Created a simple login App without database and without registration</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1060,6 +1087,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6687,15 +6717,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74959F7F-F66C-4D61-9F9B-A5593A4CED83}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="110.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
@@ -7258,10 +7288,10 @@
         <v>45100</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -7272,7 +7302,7 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -7286,10 +7316,10 @@
         <v>45103</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -7300,7 +7330,7 @@
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -7314,10 +7344,10 @@
         <v>45104</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -7328,7 +7358,7 @@
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -7342,10 +7372,10 @@
         <v>45105</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -7356,7 +7386,7 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -7367,7 +7397,7 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -7381,10 +7411,10 @@
         <v>45107</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -7418,14 +7448,18 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="117.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -7459,51 +7493,89 @@
         <v>45110</v>
       </c>
       <c r="C2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>280</v>
       </c>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="D3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>45111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" t="s">
+        <v>283</v>
+      </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>284</v>
+      </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>285</v>
+      </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
+      <c r="D7" t="s">
+        <v>286</v>
+      </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
+      <c r="D8" t="s">
+        <v>287</v>
+      </c>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D9" s="8"/>
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>290</v>
+      </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
-      <c r="D10" s="8"/>
+      <c r="D10" s="26" t="s">
+        <v>289</v>
+      </c>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>288</v>
+      </c>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D13F3C-9317-488A-B4E7-4046D5A5C8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15671E0-05CD-4036-B8CC-C5F7CF946FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="293">
   <si>
     <t>No</t>
   </si>
@@ -947,6 +947,12 @@
   </si>
   <si>
     <t>1. Created a simple login App without database and without registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Learnt, Practised and developed using click events from one page to another page, and about design components, </t>
+  </si>
+  <si>
+    <t>3. Learnt about to create a multiple activity and practiced</t>
   </si>
 </sst>
 </file>
@@ -7448,7 +7454,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7579,17 +7585,32 @@
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D12" s="8"/>
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>279</v>
+      </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>291</v>
+      </c>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D15" s="8"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15671E0-05CD-4036-B8CC-C5F7CF946FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD988F20-C0BF-4D08-9D01-F976C3ADEE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="294">
   <si>
     <t>No</t>
   </si>
@@ -953,6 +953,9 @@
   </si>
   <si>
     <t>3. Learnt about to create a multiple activity and practiced</t>
+  </si>
+  <si>
+    <t>2. CRUD operation in Android Studio is in progress</t>
   </si>
 </sst>
 </file>
@@ -7454,7 +7457,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7613,12 +7616,25 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D15" s="8"/>
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6">
+        <v>45114</v>
+      </c>
+      <c r="C15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>279</v>
+      </c>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="D16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>293</v>
+      </c>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD988F20-C0BF-4D08-9D01-F976C3ADEE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09232CD9-3B8C-4618-8587-B17E25D0E1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="296">
   <si>
     <t>No</t>
   </si>
@@ -956,6 +956,12 @@
   </si>
   <si>
     <t>2. CRUD operation in Android Studio is in progress</t>
+  </si>
+  <si>
+    <t>1. Learnt about CRUD operation with SQLite in Android studio.</t>
+  </si>
+  <si>
+    <t>2. KT has been received about Instant fix and splash screen for the Hayaai app.</t>
   </si>
 </sst>
 </file>
@@ -7457,7 +7463,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7637,70 +7643,84 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" s="6">
+        <v>45117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>294</v>
+      </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
-      <c r="D18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09232CD9-3B8C-4618-8587-B17E25D0E1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568F50A4-70FF-4C81-BBA1-AA7259975D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="302">
   <si>
     <t>No</t>
   </si>
@@ -962,6 +962,24 @@
   </si>
   <si>
     <t>2. KT has been received about Instant fix and splash screen for the Hayaai app.</t>
+  </si>
+  <si>
+    <t>1. Learnt about ButterKife style method in Android studio.</t>
+  </si>
+  <si>
+    <t>2. Learning is in progress for the recyclerview</t>
+  </si>
+  <si>
+    <t>3. KT has been received for the folder structure and views etc from Matheswari san.</t>
+  </si>
+  <si>
+    <t>2. KT has been received about B2B App for a few menus</t>
+  </si>
+  <si>
+    <t>1. Learing wordpress and a few customized at plugins for the Crowdfunding site in wordpress and it is in progress</t>
+  </si>
+  <si>
+    <t>3. Learning and doing practice about android studio</t>
   </si>
 </sst>
 </file>
@@ -7463,7 +7481,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7666,31 +7684,59 @@
       <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="D19" s="8"/>
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" s="6">
+        <v>45118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>296</v>
+      </c>
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
-      <c r="D20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>297</v>
+      </c>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
-      <c r="D21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>298</v>
+      </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="D22" s="8"/>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" s="6">
+        <v>45119</v>
+      </c>
+      <c r="C22" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>300</v>
+      </c>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
-      <c r="D24" s="8"/>
+      <c r="D24" s="8" t="s">
+        <v>301</v>
+      </c>
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568F50A4-70FF-4C81-BBA1-AA7259975D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334365D0-98BB-4A75-B714-AE246EB97AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="304">
   <si>
     <t>No</t>
   </si>
@@ -976,10 +976,16 @@
     <t>2. KT has been received about B2B App for a few menus</t>
   </si>
   <si>
-    <t>1. Learing wordpress and a few customized at plugins for the Crowdfunding site in wordpress and it is in progress</t>
-  </si>
-  <si>
     <t>3. Learning and doing practice about android studio</t>
+  </si>
+  <si>
+    <t>1. Learning wordpress and a few customized at plugins for the Crowdfunding site in wordpress and it is in progress</t>
+  </si>
+  <si>
+    <t>2. Today, there was no KT for B2B from Matheswari san due to she is busy in other works , she will continue from tomorrow onwards.</t>
+  </si>
+  <si>
+    <t>3. Supported to install wordpress,  plugins etc to Prabhu san and explained to him and also shared to him from completed one.</t>
   </si>
 </sst>
 </file>
@@ -7480,8 +7486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8CB0DD-DE15-4519-83E5-4C23C223B412}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7723,7 +7729,7 @@
         <v>278</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E22" s="9"/>
     </row>
@@ -7735,22 +7741,36 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="D24" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" s="6">
+        <v>45120</v>
+      </c>
+      <c r="C25" t="s">
+        <v>278</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
-      <c r="D26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>302</v>
+      </c>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D27" s="8"/>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D27" s="8" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334365D0-98BB-4A75-B714-AE246EB97AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148F3634-FA7B-4207-85AA-DD5A19813CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="307">
   <si>
     <t>No</t>
   </si>
@@ -986,6 +986,15 @@
   </si>
   <si>
     <t>3. Supported to install wordpress,  plugins etc to Prabhu san and explained to him and also shared to him from completed one.</t>
+  </si>
+  <si>
+    <t>1. The KT has been received from Matheswari san about B2B and etc.</t>
+  </si>
+  <si>
+    <t>2. Supported towards Crowdfunding site,(plugins, editing and etc)</t>
+  </si>
+  <si>
+    <t>3. Learning and doing practice about  fragments in android studio.</t>
   </si>
 </sst>
 </file>
@@ -7486,8 +7495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8CB0DD-DE15-4519-83E5-4C23C223B412}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7773,17 +7782,31 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="D28" s="8"/>
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28" s="6">
+        <v>45121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>278</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>304</v>
+      </c>
       <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
-      <c r="D29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>305</v>
+      </c>
       <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>306</v>
+      </c>
       <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148F3634-FA7B-4207-85AA-DD5A19813CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9279C3-4159-4378-8C31-6BE7947049CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="311">
   <si>
     <t>No</t>
   </si>
@@ -995,6 +995,18 @@
   </si>
   <si>
     <t>3. Learning and doing practice about  fragments in android studio.</t>
+  </si>
+  <si>
+    <t>3. KT has been received to convert from Angularweb  to Android.</t>
+  </si>
+  <si>
+    <t>4. Installation of Angular, Node.js are in progress.</t>
+  </si>
+  <si>
+    <t>1. Learning wordpress and  creating a report for donor list (donation received reports like donation id, donor firstname, donor date, donor amount for the admin's rights.</t>
+  </si>
+  <si>
+    <t>2.  SQL query has been created  to get donor report</t>
   </si>
 </sst>
 </file>
@@ -7493,17 +7505,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8CB0DD-DE15-4519-83E5-4C23C223B412}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="82" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
@@ -7809,10 +7821,35 @@
       </c>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
-      <c r="D31" s="8"/>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31" s="6">
+        <v>45124</v>
+      </c>
+      <c r="C31" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D32" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="8" t="s">
+        <v>308</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9279C3-4159-4378-8C31-6BE7947049CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB0A6A8-51BA-4588-9916-C578FDCE4787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="315">
   <si>
     <t>No</t>
   </si>
@@ -1007,6 +1007,18 @@
   </si>
   <si>
     <t>2.  SQL query has been created  to get donor report</t>
+  </si>
+  <si>
+    <t>1. Learning and developing a crowdfunding site using wordpress</t>
+  </si>
+  <si>
+    <t>2.  Report generation of the donor detailed reports is in progress</t>
+  </si>
+  <si>
+    <t>2 Installation of Node.js, Angular had been completed, tested and it is functioning smoothly.</t>
+  </si>
+  <si>
+    <t>1. Setting up envionmental for Jdk, android, gradle and testing is in progress and etc</t>
   </si>
 </sst>
 </file>
@@ -7505,10 +7517,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8CB0DD-DE15-4519-83E5-4C23C223B412}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7841,14 +7853,52 @@
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D34" s="8" t="s">
         <v>308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35" s="6">
+        <v>45125</v>
+      </c>
+      <c r="C35" t="s">
+        <v>264</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="B37" s="6">
+        <v>45126</v>
+      </c>
+      <c r="C37" t="s">
+        <v>278</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="8" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB0A6A8-51BA-4588-9916-C578FDCE4787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC98F0B-0B7D-41EB-9E0C-6F7CEB964537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="319">
   <si>
     <t>No</t>
   </si>
@@ -1019,6 +1019,18 @@
   </si>
   <si>
     <t>1. Setting up envionmental for Jdk, android, gradle and testing is in progress and etc</t>
+  </si>
+  <si>
+    <t>1. Converting (Build) Angular web to Android APK had been done.(all steps are done)</t>
+  </si>
+  <si>
+    <t>2. Created APK has been installed at Mobile, it is success</t>
+  </si>
+  <si>
+    <t>3. Login with a provided credential is success in mobile app of penna care..</t>
+  </si>
+  <si>
+    <t>4. Learning about git cloning is in progress</t>
   </si>
 </sst>
 </file>
@@ -7517,10 +7529,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8CB0DD-DE15-4519-83E5-4C23C223B412}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7899,6 +7911,35 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D38" s="8" t="s">
         <v>313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>14</v>
+      </c>
+      <c r="B39" s="6">
+        <v>45127</v>
+      </c>
+      <c r="C39" t="s">
+        <v>278</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="8" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC98F0B-0B7D-41EB-9E0C-6F7CEB964537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9BF3E1-9A7D-44AD-AE09-D3FB62A2AB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="321">
   <si>
     <t>No</t>
   </si>
@@ -1027,10 +1027,16 @@
     <t>2. Created APK has been installed at Mobile, it is success</t>
   </si>
   <si>
-    <t>3. Login with a provided credential is success in mobile app of penna care..</t>
-  </si>
-  <si>
     <t>4. Learning about git cloning is in progress</t>
+  </si>
+  <si>
+    <t>3. Login with a provided credential is success in mobile app of Penna care..</t>
+  </si>
+  <si>
+    <t>1. Learning and developing about Fragments in android and the learning is in progress</t>
+  </si>
+  <si>
+    <t>2. Practicing and building from Angular web to Android APK</t>
   </si>
 </sst>
 </file>
@@ -7529,10 +7535,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8CB0DD-DE15-4519-83E5-4C23C223B412}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7934,12 +7940,31 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D41" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D42" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43" s="6">
+        <v>45128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>278</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9BF3E1-9A7D-44AD-AE09-D3FB62A2AB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E211E9-6460-4DB0-965D-124003434F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="324">
   <si>
     <t>No</t>
   </si>
@@ -1037,6 +1037,15 @@
   </si>
   <si>
     <t>2. Practicing and building from Angular web to Android APK</t>
+  </si>
+  <si>
+    <t>1. Supported to wordpress towards crowdfund to create a in popup after click at Report meu</t>
+  </si>
+  <si>
+    <t>3. Learnt about  push notifications at firebase  from Matheswari san (KT)</t>
+  </si>
+  <si>
+    <t>2. Learnt about App publishing in  Google play store from Matheswari san (KT)</t>
   </si>
 </sst>
 </file>
@@ -7535,10 +7544,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8CB0DD-DE15-4519-83E5-4C23C223B412}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7965,6 +7974,30 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>16</v>
+      </c>
+      <c r="B45" s="6">
+        <v>45131</v>
+      </c>
+      <c r="C45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D45" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="8" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E211E9-6460-4DB0-965D-124003434F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D742D38-A56C-4058-8344-469AECE027F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="333">
   <si>
     <t>No</t>
   </si>
@@ -1046,6 +1046,34 @@
   </si>
   <si>
     <t>2. Learnt about App publishing in  Google play store from Matheswari san (KT)</t>
+  </si>
+  <si>
+    <t>2. Practicing and building from Angular web to Android APK with little modification from the source,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Practicing the debug  with mobile app for the Penna care </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Supported to wordpress towards crowdfund to create a in popup after click at Report menu and 
+downloading as excel reports </t>
+  </si>
+  <si>
+    <t>1. Learning and developing about Angular web and it is in progress</t>
+  </si>
+  <si>
+    <t>2. Just started basic of Angular</t>
+  </si>
+  <si>
+    <t>1. Created a documents to build from Angular to Android APK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Practicing the debug  with mobile app for the Penna care </t>
+  </si>
+  <si>
+    <t>3. Testing a Hayaa App and checking with Physical devices</t>
+  </si>
+  <si>
+    <t>4. Testing with B2B is in progress</t>
   </si>
 </sst>
 </file>
@@ -7544,10 +7572,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8CB0DD-DE15-4519-83E5-4C23C223B412}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7998,6 +8026,78 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D47" s="8" t="s">
         <v>322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>17</v>
+      </c>
+      <c r="B48" s="6">
+        <v>45132</v>
+      </c>
+      <c r="C48" t="s">
+        <v>278</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>18</v>
+      </c>
+      <c r="B51" s="6">
+        <v>45133</v>
+      </c>
+      <c r="C51" t="s">
+        <v>278</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>19</v>
+      </c>
+      <c r="B53" s="6">
+        <v>45134</v>
+      </c>
+      <c r="C53" t="s">
+        <v>278</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="8" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D742D38-A56C-4058-8344-469AECE027F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E6AC1C-C334-4D90-B5CE-4B91B618FDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="339">
   <si>
     <t>No</t>
   </si>
@@ -1074,6 +1074,24 @@
   </si>
   <si>
     <t>4. Testing with B2B is in progress</t>
+  </si>
+  <si>
+    <t>1. Testing with B2B has been completed after creating or build an APK</t>
+  </si>
+  <si>
+    <t>3. Updated the Angular to Android APK build documents</t>
+  </si>
+  <si>
+    <t>4. A few doubts are clarified about Server Key from the Google console</t>
+  </si>
+  <si>
+    <t>2. Testing with HAYAAY APP done</t>
+  </si>
+  <si>
+    <t>5. Updated build documents has been shared to Karan san.</t>
+  </si>
+  <si>
+    <t>6. RPA LIVE SOURCE CODE has been received from Mohan san today.</t>
   </si>
 </sst>
 </file>
@@ -7572,10 +7590,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8CB0DD-DE15-4519-83E5-4C23C223B412}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8098,6 +8116,45 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D56" s="8" t="s">
         <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>20</v>
+      </c>
+      <c r="B57" s="6">
+        <v>45135</v>
+      </c>
+      <c r="C57" t="s">
+        <v>278</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D60" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="8" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E6AC1C-C334-4D90-B5CE-4B91B618FDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35D365B-5916-4931-9CC2-6A77BAF22E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
   <sheets>
     <sheet name="JAN-23" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="347">
   <si>
     <t>No</t>
   </si>
@@ -1092,6 +1092,30 @@
   </si>
   <si>
     <t>6. RPA LIVE SOURCE CODE has been received from Mohan san today.</t>
+  </si>
+  <si>
+    <t>1. Learning and Practising Angular etc</t>
+  </si>
+  <si>
+    <t>2. Learning about Fragments in Android</t>
+  </si>
+  <si>
+    <t>1. Task executed for SSC11 of the Service Order Pending Monthly task.</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>2. KT has been given to Karan san to build from Angular to Android</t>
+  </si>
+  <si>
+    <t>3. KT has been received from Karan san about iOS build, whereas I need to sit next him to practice further</t>
+  </si>
+  <si>
+    <t>4. Learning Angular is in progress.</t>
+  </si>
+  <si>
+    <t>1. Strurcture of folders and code analyzing about angular to android done</t>
   </si>
 </sst>
 </file>
@@ -7590,10 +7614,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8CB0DD-DE15-4519-83E5-4C23C223B412}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D62"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8157,6 +8181,33 @@
         <v>338</v>
       </c>
     </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>21</v>
+      </c>
+      <c r="B64" s="6">
+        <v>45138</v>
+      </c>
+      <c r="C64" t="s">
+        <v>278</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>341</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8166,8 +8217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468AC72A-3615-40DE-8B6E-480DA987AD8E}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8205,10 +8256,18 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45139</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>346</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -8217,7 +8276,9 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -8226,7 +8287,9 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -8235,7 +8298,9 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35D365B-5916-4931-9CC2-6A77BAF22E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096BA852-4B48-4839-B371-4949454CB6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="357">
   <si>
     <t>No</t>
   </si>
@@ -1116,6 +1116,36 @@
   </si>
   <si>
     <t>1. Strurcture of folders and code analyzing about angular to android done</t>
+  </si>
+  <si>
+    <t>DOTNET</t>
+  </si>
+  <si>
+    <t>1. Learning process is in progress about the C#.</t>
+  </si>
+  <si>
+    <t>2. Visual Studio has been updated to include Winows Application support</t>
+  </si>
+  <si>
+    <t>3. Learnt about data types in the C# and it is in progress</t>
+  </si>
+  <si>
+    <t>4. Simple windows application studied and created with a few controls in winform.</t>
+  </si>
+  <si>
+    <t>1. A few corrections received for the  below mentioned tasks due to the downloaded filename has been changed at GSPN site and hence these tasks are failed during CSV file creation and it has been fixed, tested and they are running smoothly.</t>
+  </si>
+  <si>
+    <t>2. DRS DAILY TASK</t>
+  </si>
+  <si>
+    <t>3. POC DAILY TASK</t>
+  </si>
+  <si>
+    <t>5. PR SUMMARY DAILY TASK</t>
+  </si>
+  <si>
+    <t>4. ServiceOrderCancelled DAILY Task</t>
   </si>
 </sst>
 </file>
@@ -8218,7 +8248,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8306,10 +8336,18 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45140</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>348</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -8318,7 +8356,9 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -8327,7 +8367,9 @@
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>350</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -8336,16 +8378,26 @@
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>351</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45141</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>352</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -8354,7 +8406,9 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>353</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -8363,7 +8417,9 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -8372,7 +8428,9 @@
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>356</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -8381,7 +8439,9 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096BA852-4B48-4839-B371-4949454CB6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC06DD3-8A5C-4F51-8474-80853711EE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="360">
   <si>
     <t>No</t>
   </si>
@@ -1146,6 +1146,15 @@
   </si>
   <si>
     <t>4. ServiceOrderCancelled DAILY Task</t>
+  </si>
+  <si>
+    <t>2. PRSUMMARY-10DAYS TASK</t>
+  </si>
+  <si>
+    <t>3. PRDETAILS-10Days TASK</t>
+  </si>
+  <si>
+    <t>5. Invoice Update OOW weekly task</t>
   </si>
 </sst>
 </file>
@@ -8248,7 +8257,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8446,11 +8455,19 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45142</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>352</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -8459,7 +8476,9 @@
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -8468,7 +8487,9 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>358</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -8477,7 +8498,9 @@
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -8486,7 +8509,9 @@
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>359</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC06DD3-8A5C-4F51-8474-80853711EE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3246482D-F920-4FF3-A79D-DB986989CF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="363">
   <si>
     <t>No</t>
   </si>
@@ -1155,6 +1155,16 @@
   </si>
   <si>
     <t>5. Invoice Update OOW weekly task</t>
+  </si>
+  <si>
+    <t>1. A few corrections received from the Service Order Cancelled Daily task due to table collapsed at excel file during download, and it has been fixed  tested 
+and it is running smoothly</t>
+  </si>
+  <si>
+    <t>2. A few corrections received from SRNCustom(PARTS_OVERDUE_MONTHLY_NoneCustom_23Aug07) monthly task, and it is work in progress</t>
+  </si>
+  <si>
+    <t>3. Learning about windows applications in DOTNET and etc</t>
   </si>
 </sst>
 </file>
@@ -8256,8 +8266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468AC72A-3615-40DE-8B6E-480DA987AD8E}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8525,11 +8535,19 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45145</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>360</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -8538,7 +8556,9 @@
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -8547,7 +8567,9 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3246482D-F920-4FF3-A79D-DB986989CF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C15A72-39EA-4EE9-A1CA-399F105BB7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="364">
   <si>
     <t>No</t>
   </si>
@@ -1165,6 +1165,9 @@
   </si>
   <si>
     <t>3. Learning about windows applications in DOTNET and etc</t>
+  </si>
+  <si>
+    <t>1. A few corrections received for the ServiceOrderCancelled Daily task, the issue has been fixed, whereas the record count is mismatching and the validation is going on.</t>
   </si>
 </sst>
 </file>
@@ -8266,8 +8269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468AC72A-3615-40DE-8B6E-480DA987AD8E}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8583,20 +8586,34 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="2"/>
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45146</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C15A72-39EA-4EE9-A1CA-399F105BB7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A7A116-CB98-479E-9AB9-E70D8EFC1E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="365">
   <si>
     <t>No</t>
   </si>
@@ -1168,6 +1168,10 @@
   </si>
   <si>
     <t>1. A few corrections received for the ServiceOrderCancelled Daily task, the issue has been fixed, whereas the record count is mismatching and the validation is going on.</t>
+  </si>
+  <si>
+    <t>1. Doing and checking, and testing the SRNCustom(Parts_OverDue_monthly task) due to contents, filename issue are in progress and it is a big process and 
+each SSC will run for two and half hours.</t>
   </si>
 </sst>
 </file>
@@ -8270,7 +8274,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8618,13 +8622,25 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="2"/>
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>7</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45147</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A7A116-CB98-479E-9AB9-E70D8EFC1E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFB982B-853B-4303-BB55-611A4ACBF3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="373">
   <si>
     <t>No</t>
   </si>
@@ -1172,6 +1172,30 @@
   <si>
     <t>1. Doing and checking, and testing the SRNCustom(Parts_OverDue_monthly task) due to contents, filename issue are in progress and it is a big process and 
 each SSC will run for two and half hours.</t>
+  </si>
+  <si>
+    <t>1. The Correction, downloaded filename issue has been fixed, tested at SRNCUSTOME(Parts_overdue_monthly) task and it is running smoothly</t>
+  </si>
+  <si>
+    <t>3. A few correction is received for the Invoice update Exc Iw Monthly  task and it is work in progress</t>
+  </si>
+  <si>
+    <t>2. A few correction, downloaded filename issue, contents issue has been fixed, tested at SSC3,SSC10,SSC11 and it is running from download to upload smoothly (implemented to support Export/DailyReportstatus.xls files.).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A few corrections received due to downloading filename changed at GSPN site during download has been fixed for the below mentioned tasks, tested and they are running smoothly</t>
+  </si>
+  <si>
+    <t>1. INVOICE_UPDATE_OOW_MONTHLY_V2 TASK</t>
+  </si>
+  <si>
+    <t>2. INVOICE_UPDATE_EXC_IW_MONTHLY_V2 TASK</t>
+  </si>
+  <si>
+    <t>3. INVOICE_UPDATE_IW_MONTHLY_V2 TASK</t>
+  </si>
+  <si>
+    <t>4. ACTVITY DAILY TASK is  work in progress</t>
   </si>
 </sst>
 </file>
@@ -8271,10 +8295,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468AC72A-3615-40DE-8B6E-480DA987AD8E}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8653,60 +8677,151 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="2"/>
+      <c r="A29" s="2">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45148</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="2"/>
+      <c r="D30" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="2"/>
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>9</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45149</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D33" s="2"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="6"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="6"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="6"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFB982B-853B-4303-BB55-611A4ACBF3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806D4131-E2B8-48A1-BB6D-A09067F77CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="376">
   <si>
     <t>No</t>
   </si>
@@ -1196,6 +1196,15 @@
   </si>
   <si>
     <t>4. ACTVITY DAILY TASK is  work in progress</t>
+  </si>
+  <si>
+    <t>1. Activity daily task</t>
+  </si>
+  <si>
+    <t>2. SERVICE_ORDER_PARTS_NO_CAPTURE_MONTHLY_HARD_V1_23Aug14 is work in progress</t>
+  </si>
+  <si>
+    <t>3. SERVICE_ORDER_PENDING_MONTHLY task is work in progress</t>
   </si>
 </sst>
 </file>
@@ -8295,10 +8304,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468AC72A-3615-40DE-8B6E-480DA987AD8E}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8796,11 +8805,19 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>10</v>
+      </c>
+      <c r="B37" s="3">
+        <v>45152</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>368</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -8809,19 +8826,100 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806D4131-E2B8-48A1-BB6D-A09067F77CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F616E2-42D2-4A78-BDA0-3D366D6193CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="378">
   <si>
     <t>No</t>
   </si>
@@ -1205,6 +1205,13 @@
   </si>
   <si>
     <t>3. SERVICE_ORDER_PENDING_MONTHLY task is work in progress</t>
+  </si>
+  <si>
+    <t>1. A few correction received for the Service Order Cancelled Daily task, it has been fixed (content issue and filename issue), tested and it is running smoothly.</t>
+  </si>
+  <si>
+    <t>2. SERVICE_ORDER_PARTS_NO_CAPTURE_MONTHLY_HARD_V1_23Aug14  task is having issue of  (filename issue during download) hass been fixed,the 
+testing is going on and it is work in progress</t>
   </si>
 </sst>
 </file>
@@ -8307,7 +8314,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D41" sqref="D41:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8868,28 +8875,48 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="A41" s="2">
+        <v>11</v>
+      </c>
+      <c r="B41" s="3">
+        <v>45154</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="D42" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F616E2-42D2-4A78-BDA0-3D366D6193CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2A9F17-6530-49F7-8EA5-3AAF3B71CFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="382">
   <si>
     <t>No</t>
   </si>
@@ -1212,6 +1212,18 @@
   <si>
     <t>2. SERVICE_ORDER_PARTS_NO_CAPTURE_MONTHLY_HARD_V1_23Aug14  task is having issue of  (filename issue during download) hass been fixed,the 
 testing is going on and it is work in progress</t>
+  </si>
+  <si>
+    <t>1. A few correction received for the Service Order Pending monthly task, it has been fixed (content issue and filename issue), tested and it is running smoothly.</t>
+  </si>
+  <si>
+    <t>2. Correction Received for the Service Order Cancelled Daily task has been fixed, tested and it is running smoothly</t>
+  </si>
+  <si>
+    <t>3. Correction Received for the PR Summary 10days and details 10 days, it has been fixed, tested and it is running smoothly</t>
+  </si>
+  <si>
+    <t>4. PR Summary daily task has been fixed due to content issue, tested and it is running smoothly</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1355,6 +1367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8311,10 +8324,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468AC72A-3615-40DE-8B6E-480DA987AD8E}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:D43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8922,31 +8935,101 @@
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="A44" s="2">
+        <v>12</v>
+      </c>
+      <c r="B44" s="3">
+        <v>45155</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2A9F17-6530-49F7-8EA5-3AAF3B71CFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73738FE-1889-439F-ACDB-B6E62FB3C6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="385">
   <si>
     <t>No</t>
   </si>
@@ -1224,6 +1224,15 @@
   </si>
   <si>
     <t>4. PR Summary daily task has been fixed due to content issue, tested and it is running smoothly</t>
+  </si>
+  <si>
+    <t>1. A few Correction Received for the Service Order Cancelled Daily task has been fixed, tested and it is running smoothly</t>
+  </si>
+  <si>
+    <t>2. A few Correction Received for the PR Summary 10days and details 10 days, it has been fixed, tested and it is running smoothly</t>
+  </si>
+  <si>
+    <t>3. SERVICE_ORDER_PARTS_NO_CAPTURE_MONTHLY_HARD_V1_23Aug17 task was excuted for SSC8 and it is running smoothly</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1367,7 +1376,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8327,7 +8335,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:F51"/>
+      <selection activeCell="D48" sqref="D48:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8989,7 +8997,7 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="2" t="s">
         <v>381</v>
       </c>
       <c r="E47" s="4">
@@ -9000,28 +9008,52 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="A48" s="2">
+        <v>13</v>
+      </c>
+      <c r="B48" s="3">
+        <v>45156</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73738FE-1889-439F-ACDB-B6E62FB3C6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7B56F2-C758-41A0-A13E-75059C82BFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="387">
   <si>
     <t>No</t>
   </si>
@@ -1233,6 +1233,12 @@
   </si>
   <si>
     <t>3. SERVICE_ORDER_PARTS_NO_CAPTURE_MONTHLY_HARD_V1_23Aug17 task was excuted for SSC8 and it is running smoothly</t>
+  </si>
+  <si>
+    <t>1. A few correction received for the Stock Over View Monthly task, it has been fixed (content issue and filename issue), tested and it is running smoothly.</t>
+  </si>
+  <si>
+    <t>2. A few correction received for the DebitNote Register Monthly task, it has been fixed (content issue and filename issue), tested and it is running smoothly.</t>
   </si>
 </sst>
 </file>
@@ -8332,10 +8338,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468AC72A-3615-40DE-8B6E-480DA987AD8E}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48:D50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G47" sqref="A47:G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9006,6 +9012,7 @@
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
@@ -9026,8 +9033,9 @@
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -9040,8 +9048,9 @@
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -9054,14 +9063,97 @@
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>14</v>
+      </c>
+      <c r="B51" s="3">
+        <v>45159</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7B56F2-C758-41A0-A13E-75059C82BFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845B7AA7-A5E8-4487-B701-D0B92ED0B805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="391">
   <si>
     <t>No</t>
   </si>
@@ -1239,6 +1239,18 @@
   </si>
   <si>
     <t>2. A few correction received for the DebitNote Register Monthly task, it has been fixed (content issue and filename issue), tested and it is running smoothly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The filename of the downloaded has been corrected, tested for the below mentioned monthly tasks and 10 days task and they are running smoothly.</t>
+  </si>
+  <si>
+    <t>1. INVOICE_UPDATE_PDF_MONTHLY_V1_23Aug22 TASK</t>
+  </si>
+  <si>
+    <t>2. OTHER_SALES_MONTHLY_V4_23Aug22 TASK</t>
+  </si>
+  <si>
+    <t>3. PR_DETAILS_10DAYS_V1_23Aug22 TASK (content issue)</t>
   </si>
 </sst>
 </file>
@@ -8341,7 +8353,7 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G47" sqref="A47:G58"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9102,19 +9114,33 @@
       <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="A53" s="2">
+        <v>15</v>
+      </c>
+      <c r="B53" s="3">
+        <v>45160</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>388</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -9123,7 +9149,9 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>389</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -9132,7 +9160,9 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="D56" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845B7AA7-A5E8-4487-B701-D0B92ED0B805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2B847E-8F30-4815-99F3-D35046DBB5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="394">
   <si>
     <t>No</t>
   </si>
@@ -1251,6 +1251,15 @@
   </si>
   <si>
     <t>3. PR_DETAILS_10DAYS_V1_23Aug22 TASK (content issue)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The filename of the downloaded has been corrected, tested for the below mentioned monthly tasks  and they are running smoothly.</t>
+  </si>
+  <si>
+    <t>1. PARTS_IO_MONTHLY_V1_23Aug23 TASK</t>
+  </si>
+  <si>
+    <t>2. RETURN_CREDIT_MONTHLY_V1_23Aug23 TASK</t>
   </si>
 </sst>
 </file>
@@ -8350,10 +8359,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468AC72A-3615-40DE-8B6E-480DA987AD8E}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9168,22 +9177,137 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="A57" s="2">
+        <v>16</v>
+      </c>
+      <c r="B57" s="3">
+        <v>45161</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2B847E-8F30-4815-99F3-D35046DBB5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A142DC-94EB-4B1F-B880-84450D701F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="396">
   <si>
     <t>No</t>
   </si>
@@ -1260,6 +1260,12 @@
   </si>
   <si>
     <t>2. RETURN_CREDIT_MONTHLY_V1_23Aug23 TASK</t>
+  </si>
+  <si>
+    <t>1. SAWDISCOUNT MONTHLY TASK</t>
+  </si>
+  <si>
+    <t>2. There was content issue from export.xls  file and it has been fixed, tested at few SSCs and it is running smoothly.</t>
   </si>
 </sst>
 </file>
@@ -8362,7 +8368,7 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9220,19 +9226,33 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="A60" s="2">
+        <v>17</v>
+      </c>
+      <c r="B60" s="3">
+        <v>45162</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="D61" s="2" t="s">
+        <v>394</v>
+      </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -9241,7 +9261,9 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="D62" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A142DC-94EB-4B1F-B880-84450D701F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF91D4B-5A5E-482E-A9AF-0C78452AAD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="399">
   <si>
     <t>No</t>
   </si>
@@ -1266,6 +1266,15 @@
   </si>
   <si>
     <t>2. There was content issue from export.xls  file and it has been fixed, tested at few SSCs and it is running smoothly.</t>
+  </si>
+  <si>
+    <t>1. PARTS_TURNOVER_MONTHLY_V1_23Aug25 TASK</t>
+  </si>
+  <si>
+    <t>2. PR_SUMMARY_10days task</t>
+  </si>
+  <si>
+    <t>3. PR_DETAILS_10DAYS_V1_23Aug25 TASK (content issue)</t>
   </si>
 </sst>
 </file>
@@ -8367,8 +8376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468AC72A-3615-40DE-8B6E-480DA987AD8E}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9269,19 +9278,33 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+      <c r="A63" s="2">
+        <v>18</v>
+      </c>
+      <c r="B63" s="3">
+        <v>45163</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -9290,7 +9313,9 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+      <c r="D65" s="2" t="s">
+        <v>397</v>
+      </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -9299,7 +9324,9 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF91D4B-5A5E-482E-A9AF-0C78452AAD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEE7C66-4E62-48FA-AC3C-4690558528CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="403">
   <si>
     <t>No</t>
   </si>
@@ -1275,6 +1275,18 @@
   </si>
   <si>
     <t>3. PR_DETAILS_10DAYS_V1_23Aug25 TASK (content issue)</t>
+  </si>
+  <si>
+    <t>1. A few correction received from the DRS daily task has been fixed, tested and it is running smoothly</t>
+  </si>
+  <si>
+    <t>2. Learning about DOT.NET is in progress</t>
+  </si>
+  <si>
+    <t>3. A few correction is received for the Invoice Update OOW weekly task and it is work in progress</t>
+  </si>
+  <si>
+    <t>1. A few correction is received for the Invoice Update OOW weekly task, and it has been fixed, tested at few SSCs and it is running smoothly.</t>
   </si>
 </sst>
 </file>
@@ -8374,10 +8386,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468AC72A-3615-40DE-8B6E-480DA987AD8E}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9332,19 +9344,33 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="A67" s="2">
+        <v>19</v>
+      </c>
+      <c r="B67" s="3">
+        <v>45166</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>400</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -9353,10 +9379,80 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>401</v>
+      </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>20</v>
+      </c>
+      <c r="B70" s="3">
+        <v>45167</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEE7C66-4E62-48FA-AC3C-4690558528CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5BE2E8-1079-4C1D-BB4D-651FDDBFB055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
   <sheets>
     <sheet name="JAN-23" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="413">
   <si>
     <t>No</t>
   </si>
@@ -1287,6 +1287,37 @@
   </si>
   <si>
     <t>1. A few correction is received for the Invoice Update OOW weekly task, and it has been fixed, tested at few SSCs and it is running smoothly.</t>
+  </si>
+  <si>
+    <t>2. Learning about DOT.NET is in progress (DotNet core installation issue and I am checking now)</t>
+  </si>
+  <si>
+    <t>1. SERVICE_ORDER_PARTS_NO_CAPTURE_MONTHLY_HARD_V1 task was executed for SSC10 and it is having 3234 records, it will run for another two days 
+to complete fetching the parts number and the fetching is in progress</t>
+  </si>
+  <si>
+    <t>1. A few correction received from Activity Daily task, it has been fixed, tested in all SSCs and it is running smoothly.</t>
+  </si>
+  <si>
+    <t>2. Learning about DOTNET is in progress</t>
+  </si>
+  <si>
+    <t>3. SERVICE_ORDER_PARTS_NO_CAPTURE_MONTHLY_HARD_V1 task was executed for SSC10 and it is having 3234 records, 1000 records were completed and other is in progress</t>
+  </si>
+  <si>
+    <t>2. Around 800 records are fetched and other is in progress ( almost 1400 pending) for SSC10 for the Parts Number fetching task.</t>
+  </si>
+  <si>
+    <t>1. SERVICE_ORDER_PARTS_NO_CAPTURE_MONTHLY_HARD_V1 task was executed for SSC10 and it is having 3234 records, 1000 records were completed and other is in progress</t>
+  </si>
+  <si>
+    <t>1. SERVICE_ORDER_PARTS_NO_CAPTURE_MONTHLY_HARD_V1 task was executed for SSC11 and it is having 4613 records, 290 records were completed and other is in progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. SSC10 of the Parts Number extracting task has been completed and uploaded smoothly </t>
+  </si>
+  <si>
+    <t>3. RPALIVECODE has been shared to Ram santhosh based on Elaya san suggestions</t>
   </si>
 </sst>
 </file>
@@ -8386,10 +8417,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468AC72A-3615-40DE-8B6E-480DA987AD8E}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9418,30 +9449,54 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+    <row r="72" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>21</v>
+      </c>
+      <c r="B72" s="3">
+        <v>45168</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+      <c r="D73" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="A74" s="2">
+        <v>22</v>
+      </c>
+      <c r="B74" s="3">
+        <v>45169</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
@@ -9449,10 +9504,115 @@
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="D75" s="2" t="s">
+        <v>406</v>
+      </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="E76" s="4">
+        <v>3</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9464,8 +9624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F991B2F2-F26E-4AE7-AD42-E5C8A6539792}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9503,25 +9663,77 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="3"/>
-      <c r="E2" s="4"/>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45170</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D3" s="2" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>406</v>
+      </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E6" s="4"/>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45173</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">

--- a/Rever_DailyTrack_BALRAJ_2023.xlsx
+++ b/Rever_DailyTrack_BALRAJ_2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktopbackup_unw\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5BE2E8-1079-4C1D-BB4D-651FDDBFB055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1979EF-3912-4044-814C-9FE227443474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{9ACA2DF5-AEE6-410E-87BC-DB7657612222}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="437">
   <si>
     <t>No</t>
   </si>
@@ -1318,6 +1318,79 @@
   </si>
   <si>
     <t>3. RPALIVECODE has been shared to Ram santhosh based on Elaya san suggestions</t>
+  </si>
+  <si>
+    <t>1. SERVICE_ORDER_PARTS_NO_CAPTURE_MONTHLY_HARD_V1 task was executed for SSC11 and it is having 4613 records, 1200 records were completed and other is in progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Received the source code of RPA LIVE DATABASE Script file and MFA script has been received from Mohan san </t>
+  </si>
+  <si>
+    <t>1. SERVICE_ORDER_PARTS_NO_CAPTURE_MONTHLY_HARD_V1 task was executed for SSC11 and it is having 4613 records, around 3000 records were completed and other is in progress</t>
+  </si>
+  <si>
+    <t>2. As Parts fecthing is going, I will copy the config file, email file and utility files are to be copied from newbot, I will share these on Friday.</t>
+  </si>
+  <si>
+    <t>1. SERVICE_ORDER_PARTS_NO_CAPTURE_MONTHLY_HARD_V1 task was executed for SSC11 and it is having 4613 records, around 3835 records were completed and other is in progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. SERVICE_ORDER_PARTS_NO_CAPTURE_MONTHLY_HARD_V1 task was executed for SSC11 and  it has been uploaded and completed </t>
+  </si>
+  <si>
+    <t>2. The Service Order Pending task has been executed for the SSC6,SSC8,SSC3 and SSC9 and they are completed from download to upload success.</t>
+  </si>
+  <si>
+    <t>3. A correction received from the PRDetails 10 days task, and it has been fixed, tested and it is running smoothly ( the issue was 
+that the first five days date is not having data and hence the task was failed after uploading the second five days data)</t>
+  </si>
+  <si>
+    <t>1. The Service Order Pending task has been executed for the  SSC9 and it is  completed from download to upload success.</t>
+  </si>
+  <si>
+    <t>1. The Service Order Pending task has been executed for the  SSC10 and it is  completed from download to upload success.</t>
+  </si>
+  <si>
+    <t>2. The Service Order Pending task has been executed for the  SSC6 and SSC6 and it is running in progress.</t>
+  </si>
+  <si>
+    <t>1. SERVICE_ORDER_PARTS_NO_CAPTURE_MONTHLY_HARD_V1 task was executed for SSC6 and it is having 1071 records, around 265 records were completed and other is in progress</t>
+  </si>
+  <si>
+    <t>1. SERVICE_ORDER_PARTS_NO_CAPTURE_MONTHLY_HARD_V1 task was executed for SSC6 and it is having 1071 records, around 450 records were completed and other is in progress</t>
+  </si>
+  <si>
+    <t>1. SERVICE_ORDER_PARTS_NO_CAPTURE_MONTHLY_HARD_V1 task was executed for SSC11 and it is having 5911 records, around 200 records were completed and other is in progress</t>
+  </si>
+  <si>
+    <t>2. The source code has been shared of  Database script files with MFA code files to Ram san.</t>
+  </si>
+  <si>
+    <t>1. SERVICE_ORDER_PARTS_NO_CAPTURE_MONTHLY_HARD_V1 task was executed for SSC11 and it is having 5911 records, around 485 records were completed and other is in progress</t>
+  </si>
+  <si>
+    <t>1. SERVICE_ORDER_PARTS_NO_CAPTURE_MONTHLY_HARD_V1 task was executed for SSC11 and it is having 5911 records, around 1300 records were completed and other is in progress</t>
+  </si>
+  <si>
+    <t>1. SERVICE_ORDER_PARTS_NO_CAPTURE_MONTHLY_HARD_V1 task was executed for SSC11 and it is having 5911 records, around 1600 records were completed and other is in progress</t>
+  </si>
+  <si>
+    <t>1. SERVICE_ORDER_PARTS_NO_CAPTURE_MONTHLY_HARD_V1 task was executed for SSC11 and it is having 5911 records, around 2300 records were completed and other is in progress</t>
+  </si>
+  <si>
+    <t>1. Supported to download Backup files from GSPN for the Warranty Excel files</t>
+  </si>
+  <si>
+    <t>2. Doing R&amp;D for the RPA Demo and the learning is in progress</t>
+  </si>
+  <si>
+    <t>1. Doing R&amp;D for the RPA Demo and the learning is in progress</t>
+  </si>
+  <si>
+    <t>1. KT has been given to Prashanth san regarding HAIYAI and YARRA APP and source code has been shared to him</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last working day, attended skype meeting with HR and Elaya san, </t>
   </si>
 </sst>
 </file>
@@ -9624,8 +9697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F991B2F2-F26E-4AE7-AD42-E5C8A6539792}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9736,98 +9809,397 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45174</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
+      <c r="D10" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45176</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D12" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45177</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45180</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45181</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45182</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
+      <c r="D19" s="5" t="s">
+        <v>423</v>
+      </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45183</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>10</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45184</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45188</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D28" s="5"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45189</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45190</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>14</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45191</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>15</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45195</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>16</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45195</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>433</v>
+      </c>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
-      <c r="D30" s="5"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>17</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45196</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>434</v>
+      </c>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D32" s="5"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45198</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>19</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45198</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>436</v>
+      </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
